--- a/PCI-DSS/Controls_PCIv3_2 ver 01a.xlsx
+++ b/PCI-DSS/Controls_PCIv3_2 ver 01a.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chrisdavis\Documents\2016 PROJECTS - VMW\SOLUTION – Build Kit\01 PCI-DSS\PCI DSS v3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robinsonp\Documents\GitHub\robinson-projects\PCI-DSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4488" windowHeight="4800" tabRatio="720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26220" windowHeight="12360" tabRatio="720"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 (3)" sheetId="13" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SEARCH_PCIv3.2_Controls!$J:$Q</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1 (3)'!$F$1:$H$472</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3257" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="1062">
   <si>
     <t>2.5 Ensure that security policies and operational procedures for managing vendor defaults and other security parameters are documented, in use, and known to all affected parties.</t>
   </si>
@@ -4596,12 +4596,30 @@
   <si>
     <t>SEARCH TERMS ►</t>
   </si>
+  <si>
+    <t>Base OS Image Control</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>NA on "new" base os images</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Review template for only minimal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4725,6 +4743,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -4839,7 +4888,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4989,6 +5038,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4996,7 +5060,35 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5829,53 +5921,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G283" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A1:G283"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="PK" dataDxfId="36"/>
-    <tableColumn id="3" name="CID" dataDxfId="35" dataCellStyle="Normal 3"/>
-    <tableColumn id="7" name="Requirement" dataDxfId="34" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" name="Requirement Description" dataDxfId="33"/>
-    <tableColumn id="4" name="Control Description" dataDxfId="32"/>
-    <tableColumn id="5" name="Testing Procedures" dataDxfId="31"/>
-    <tableColumn id="6" name="Guidance" dataDxfId="30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I283" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:I283"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="PK" dataDxfId="38"/>
+    <tableColumn id="3" name="CID" dataDxfId="37" dataCellStyle="Normal 3"/>
+    <tableColumn id="7" name="Requirement" dataDxfId="36" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" name="Requirement Description" dataDxfId="35"/>
+    <tableColumn id="4" name="Control Description" dataDxfId="34"/>
+    <tableColumn id="5" name="Testing Procedures" dataDxfId="33"/>
+    <tableColumn id="6" name="Guidance" dataDxfId="32"/>
+    <tableColumn id="8" name="Base OS Image Control" dataDxfId="1"/>
+    <tableColumn id="9" name="Note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table473" displayName="Table473" ref="A3:O285" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table473" displayName="Table473" ref="A3:O285" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A3:O285"/>
   <sortState ref="A4:W270">
     <sortCondition ref="A3:A270"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="19" name="PK" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="15" name="CID" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="24" name="TOTAL_FOUND" dataDxfId="12">
+    <tableColumn id="19" name="PK" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="15" name="CID" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="24" name="TOTAL_FOUND" dataDxfId="14">
       <calculatedColumnFormula>SUM(Table473[[#This Row],[SEARCH_TERM01]:[SEARCH_TERM04]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="SEARCH_TERM01" dataDxfId="11">
+    <tableColumn id="20" name="SEARCH_TERM01" dataDxfId="13">
       <calculatedColumnFormula>COUNTIF(Table473[[#This Row],[Requirement]:[Guidance]],"*" &amp; D$1 &amp; "*")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="SEARCH_TERM02" dataDxfId="10">
+    <tableColumn id="21" name="SEARCH_TERM02" dataDxfId="12">
       <calculatedColumnFormula>COUNTIF(Table473[[#This Row],[Requirement]:[Guidance]],"*" &amp; $E$1 &amp; "*")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="SEARCH_TERM03" dataDxfId="9">
+    <tableColumn id="22" name="SEARCH_TERM03" dataDxfId="11">
       <calculatedColumnFormula>COUNTIF(Table473[[#This Row],[Requirement]:[Guidance]],"*" &amp; $F$1 &amp; "*")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="SEARCH_TERM04" dataDxfId="8">
+    <tableColumn id="23" name="SEARCH_TERM04" dataDxfId="10">
       <calculatedColumnFormula>COUNTIF(Table473[[#This Row],[Requirement]:[Guidance]],"*" &amp; $G$1 &amp; "*")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Requirement" dataDxfId="7" dataCellStyle="Normal 3"/>
-    <tableColumn id="1" name="Requirement Description" dataDxfId="6" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="SUBJECTIVE_MATCH_CMD" dataDxfId="5"/>
-    <tableColumn id="12" name="Control Description" dataDxfId="4"/>
-    <tableColumn id="25" name="Testing Procedures" dataDxfId="3"/>
-    <tableColumn id="26" name="Guidance" dataDxfId="2"/>
-    <tableColumn id="4" name="Comments" dataDxfId="1"/>
-    <tableColumn id="6" name="VMW" dataDxfId="0"/>
+    <tableColumn id="14" name="Requirement" dataDxfId="9" dataCellStyle="Normal 3"/>
+    <tableColumn id="1" name="Requirement Description" dataDxfId="8" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" name="SUBJECTIVE_MATCH_CMD" dataDxfId="7"/>
+    <tableColumn id="12" name="Control Description" dataDxfId="6"/>
+    <tableColumn id="25" name="Testing Procedures" dataDxfId="5"/>
+    <tableColumn id="26" name="Guidance" dataDxfId="4"/>
+    <tableColumn id="4" name="Comments" dataDxfId="3"/>
+    <tableColumn id="6" name="VMW" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6144,27 +6238,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H472"/>
+  <dimension ref="A1:I472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E276" sqref="E276"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H88" sqref="H88:I88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" style="36" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="42" customWidth="1"/>
-    <col min="7" max="8" width="31.33203125" style="36" customWidth="1"/>
-    <col min="9" max="11" width="7" style="36" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="36"/>
+    <col min="1" max="1" width="5.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="42" customWidth="1"/>
+    <col min="7" max="8" width="31.28515625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="38" style="36" customWidth="1"/>
+    <col min="10" max="11" width="7" style="36" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>476</v>
       </c>
@@ -6186,8 +6281,14 @@
       <c r="G1" s="43" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="52" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -6209,8 +6310,12 @@
       <c r="G2" s="37" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -6232,8 +6337,12 @@
       <c r="G3" s="37" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I3" s="51"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -6255,8 +6364,12 @@
       <c r="G4" s="37" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -6278,8 +6391,12 @@
       <c r="G5" s="37" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I5" s="51"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -6301,8 +6418,12 @@
       <c r="G6" s="37" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -6324,8 +6445,12 @@
       <c r="G7" s="37" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -6347,8 +6472,12 @@
       <c r="G8" s="37" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -6370,8 +6499,12 @@
       <c r="G9" s="37" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I9" s="51"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -6393,8 +6526,12 @@
       <c r="G10" s="37" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I10" s="51"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -6416,8 +6553,12 @@
       <c r="G11" s="37" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I11" s="51"/>
+    </row>
+    <row r="12" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -6439,8 +6580,12 @@
       <c r="G12" s="37" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I12" s="51"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -6462,8 +6607,12 @@
       <c r="G13" s="37" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I13" s="51"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -6485,8 +6634,12 @@
       <c r="G14" s="37" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I14" s="51"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -6508,8 +6661,12 @@
       <c r="G15" s="37" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I15" s="51"/>
+    </row>
+    <row r="16" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -6531,8 +6688,12 @@
       <c r="G16" s="37" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I16" s="51"/>
+    </row>
+    <row r="17" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -6554,8 +6715,12 @@
       <c r="G17" s="37" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -6577,8 +6742,12 @@
       <c r="G18" s="37" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I18" s="51"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -6600,8 +6769,12 @@
       <c r="G19" s="37" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I19" s="51"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -6623,8 +6796,12 @@
       <c r="G20" s="37" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I20" s="51"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -6646,8 +6823,12 @@
       <c r="G21" s="37" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I21" s="51"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <v>21</v>
       </c>
@@ -6669,8 +6850,12 @@
       <c r="G22" s="37" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I22" s="51"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -6692,8 +6877,12 @@
       <c r="G23" s="37" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I23" s="51"/>
+    </row>
+    <row r="24" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -6715,8 +6904,14 @@
       <c r="G24" s="37" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -6738,8 +6933,14 @@
       <c r="G25" s="37" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
         <v>25</v>
       </c>
@@ -6761,8 +6962,14 @@
       <c r="G26" s="37" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I26" s="51" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37">
         <v>26</v>
       </c>
@@ -6784,31 +6991,43 @@
       <c r="G27" s="37" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37">
+      <c r="H27" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I27" s="51" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="55" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="53">
         <v>27</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="53" t="s">
         <v>544</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="53" t="s">
         <v>545</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="53" t="s">
         <v>557</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="53" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="54" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37">
         <v>28</v>
       </c>
@@ -6830,8 +7049,14 @@
       <c r="G29" s="37" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I29" s="51" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
         <v>29</v>
       </c>
@@ -6853,8 +7078,10 @@
       <c r="G30" s="37" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+    </row>
+    <row r="31" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37">
         <v>30</v>
       </c>
@@ -6876,8 +7103,10 @@
       <c r="G31" s="37" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+    </row>
+    <row r="32" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>31</v>
       </c>
@@ -6899,8 +7128,10 @@
       <c r="G32" s="37" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+    </row>
+    <row r="33" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37">
         <v>32</v>
       </c>
@@ -6922,8 +7153,10 @@
       <c r="G33" s="37" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+    </row>
+    <row r="34" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37">
         <v>33</v>
       </c>
@@ -6945,8 +7178,14 @@
       <c r="G34" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I34" s="51" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37">
         <v>34</v>
       </c>
@@ -6968,8 +7207,10 @@
       <c r="G35" s="37" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+    </row>
+    <row r="36" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
         <v>35</v>
       </c>
@@ -6991,8 +7232,10 @@
       <c r="G36" s="37" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+    </row>
+    <row r="37" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37">
         <v>36</v>
       </c>
@@ -7014,8 +7257,10 @@
       <c r="G37" s="37" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+    </row>
+    <row r="38" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
         <v>37</v>
       </c>
@@ -7037,8 +7282,10 @@
       <c r="G38" s="37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+    </row>
+    <row r="39" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="37">
         <v>38</v>
       </c>
@@ -7060,8 +7307,10 @@
       <c r="G39" s="37" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+    </row>
+    <row r="40" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <v>39</v>
       </c>
@@ -7083,8 +7332,10 @@
       <c r="G40" s="37" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+    </row>
+    <row r="41" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="37">
         <v>40</v>
       </c>
@@ -7106,8 +7357,10 @@
       <c r="G41" s="37" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+    </row>
+    <row r="42" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
         <v>41</v>
       </c>
@@ -7129,8 +7382,10 @@
       <c r="G42" s="37" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+    </row>
+    <row r="43" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37">
         <v>42</v>
       </c>
@@ -7152,8 +7407,10 @@
       <c r="G43" s="37" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+    </row>
+    <row r="44" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
         <v>43</v>
       </c>
@@ -7175,8 +7432,10 @@
       <c r="G44" s="37" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+    </row>
+    <row r="45" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37">
         <v>44</v>
       </c>
@@ -7198,8 +7457,10 @@
       <c r="G45" s="37" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+    </row>
+    <row r="46" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
         <v>45</v>
       </c>
@@ -7221,8 +7482,10 @@
       <c r="G46" s="37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+    </row>
+    <row r="47" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="37">
         <v>46</v>
       </c>
@@ -7244,8 +7507,10 @@
       <c r="G47" s="37" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+    </row>
+    <row r="48" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>47</v>
       </c>
@@ -7267,8 +7532,10 @@
       <c r="G48" s="37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+    </row>
+    <row r="49" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="37">
         <v>48</v>
       </c>
@@ -7290,8 +7557,10 @@
       <c r="G49" s="37" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+    </row>
+    <row r="50" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
         <v>49</v>
       </c>
@@ -7313,8 +7582,10 @@
       <c r="G50" s="37" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+    </row>
+    <row r="51" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="37">
         <v>50</v>
       </c>
@@ -7336,8 +7607,10 @@
       <c r="G51" s="37" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+    </row>
+    <row r="52" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
         <v>51</v>
       </c>
@@ -7359,8 +7632,10 @@
       <c r="G52" s="37" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+    </row>
+    <row r="53" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="37">
         <v>52</v>
       </c>
@@ -7382,8 +7657,10 @@
       <c r="G53" s="37" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+    </row>
+    <row r="54" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="37">
         <v>53</v>
       </c>
@@ -7405,8 +7682,10 @@
       <c r="G54" s="37" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+    </row>
+    <row r="55" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="37">
         <v>54</v>
       </c>
@@ -7428,8 +7707,10 @@
       <c r="G55" s="37" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+    </row>
+    <row r="56" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="37">
         <v>55</v>
       </c>
@@ -7451,8 +7732,10 @@
       <c r="G56" s="37" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+    </row>
+    <row r="57" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37">
         <v>56</v>
       </c>
@@ -7474,8 +7757,10 @@
       <c r="G57" s="37" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+    </row>
+    <row r="58" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37">
         <v>57</v>
       </c>
@@ -7497,8 +7782,10 @@
       <c r="G58" s="37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+    </row>
+    <row r="59" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="37">
         <v>58</v>
       </c>
@@ -7520,8 +7807,10 @@
       <c r="G59" s="37" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+    </row>
+    <row r="60" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
         <v>59</v>
       </c>
@@ -7543,8 +7832,10 @@
       <c r="G60" s="37" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+    </row>
+    <row r="61" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="37">
         <v>60</v>
       </c>
@@ -7566,8 +7857,10 @@
       <c r="G61" s="37" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+    </row>
+    <row r="62" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
         <v>61</v>
       </c>
@@ -7589,8 +7882,10 @@
       <c r="G62" s="37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+    </row>
+    <row r="63" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="37">
         <v>62</v>
       </c>
@@ -7612,8 +7907,10 @@
       <c r="G63" s="37" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+    </row>
+    <row r="64" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
         <v>63</v>
       </c>
@@ -7635,8 +7932,10 @@
       <c r="G64" s="37" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+    </row>
+    <row r="65" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="37">
         <v>64</v>
       </c>
@@ -7658,8 +7957,10 @@
       <c r="G65" s="37" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+    </row>
+    <row r="66" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
         <v>65</v>
       </c>
@@ -7681,8 +7982,10 @@
       <c r="G66" s="37" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+    </row>
+    <row r="67" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="37">
         <v>66</v>
       </c>
@@ -7704,8 +8007,10 @@
       <c r="G67" s="37" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+    </row>
+    <row r="68" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="37">
         <v>67</v>
       </c>
@@ -7727,8 +8032,10 @@
       <c r="G68" s="37" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+    </row>
+    <row r="69" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="37">
         <v>68</v>
       </c>
@@ -7750,8 +8057,10 @@
       <c r="G69" s="37" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+    </row>
+    <row r="70" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="37">
         <v>69</v>
       </c>
@@ -7773,8 +8082,10 @@
       <c r="G70" s="37" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+    </row>
+    <row r="71" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="37">
         <v>70</v>
       </c>
@@ -7796,8 +8107,10 @@
       <c r="G71" s="37" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H71" s="51"/>
+      <c r="I71" s="51"/>
+    </row>
+    <row r="72" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="37">
         <v>71</v>
       </c>
@@ -7819,8 +8132,10 @@
       <c r="G72" s="37" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H72" s="51"/>
+      <c r="I72" s="51"/>
+    </row>
+    <row r="73" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="37">
         <v>72</v>
       </c>
@@ -7842,8 +8157,10 @@
       <c r="G73" s="37" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+    </row>
+    <row r="74" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37">
         <v>73</v>
       </c>
@@ -7865,8 +8182,10 @@
       <c r="G74" s="37" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+    </row>
+    <row r="75" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="37">
         <v>74</v>
       </c>
@@ -7888,8 +8207,10 @@
       <c r="G75" s="37" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+    </row>
+    <row r="76" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="37">
         <v>75</v>
       </c>
@@ -7911,8 +8232,10 @@
       <c r="G76" s="37" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+    </row>
+    <row r="77" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="37">
         <v>76</v>
       </c>
@@ -7934,8 +8257,10 @@
       <c r="G77" s="37" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+    </row>
+    <row r="78" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="37">
         <v>77</v>
       </c>
@@ -7957,8 +8282,10 @@
       <c r="G78" s="37" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+    </row>
+    <row r="79" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37">
         <v>78</v>
       </c>
@@ -7980,8 +8307,10 @@
       <c r="G79" s="37" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
+    </row>
+    <row r="80" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="37">
         <v>79</v>
       </c>
@@ -8003,8 +8332,10 @@
       <c r="G80" s="37" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H80" s="51"/>
+      <c r="I80" s="51"/>
+    </row>
+    <row r="81" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="37">
         <v>80</v>
       </c>
@@ -8026,8 +8357,10 @@
       <c r="G81" s="37" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+    </row>
+    <row r="82" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="37">
         <v>81</v>
       </c>
@@ -8049,8 +8382,10 @@
       <c r="G82" s="37" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H82" s="51"/>
+      <c r="I82" s="51"/>
+    </row>
+    <row r="83" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="37">
         <v>82</v>
       </c>
@@ -8072,8 +8407,14 @@
       <c r="G83" s="37" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H83" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I83" s="51" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="37">
         <v>83</v>
       </c>
@@ -8095,8 +8436,14 @@
       <c r="G84" s="37" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H84" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I84" s="51" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="37">
         <v>84</v>
       </c>
@@ -8118,8 +8465,14 @@
       <c r="G85" s="37" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H85" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I85" s="51" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="37">
         <v>85</v>
       </c>
@@ -8141,8 +8494,14 @@
       <c r="G86" s="37" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H86" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I86" s="51" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="37">
         <v>86</v>
       </c>
@@ -8164,8 +8523,10 @@
       <c r="G87" s="37" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+    </row>
+    <row r="88" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="37">
         <v>87</v>
       </c>
@@ -8187,8 +8548,14 @@
       <c r="G88" s="37" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H88" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I88" s="51" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="37">
         <v>88</v>
       </c>
@@ -8210,8 +8577,10 @@
       <c r="G89" s="37" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H89" s="51"/>
+      <c r="I89" s="51"/>
+    </row>
+    <row r="90" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="37">
         <v>89</v>
       </c>
@@ -8233,8 +8602,10 @@
       <c r="G90" s="37" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H90" s="51"/>
+      <c r="I90" s="51"/>
+    </row>
+    <row r="91" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="37">
         <v>90</v>
       </c>
@@ -8256,8 +8627,10 @@
       <c r="G91" s="37" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+    </row>
+    <row r="92" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="37">
         <v>91</v>
       </c>
@@ -8279,8 +8652,10 @@
       <c r="G92" s="37" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H92" s="51"/>
+      <c r="I92" s="51"/>
+    </row>
+    <row r="93" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="37">
         <v>92</v>
       </c>
@@ -8302,8 +8677,10 @@
       <c r="G93" s="37" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H93" s="51"/>
+      <c r="I93" s="51"/>
+    </row>
+    <row r="94" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="37">
         <v>93</v>
       </c>
@@ -8325,8 +8702,10 @@
       <c r="G94" s="37" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H94" s="51"/>
+      <c r="I94" s="51"/>
+    </row>
+    <row r="95" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="37">
         <v>94</v>
       </c>
@@ -8348,8 +8727,10 @@
       <c r="G95" s="37" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H95" s="51"/>
+      <c r="I95" s="51"/>
+    </row>
+    <row r="96" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="37">
         <v>95</v>
       </c>
@@ -8371,8 +8752,10 @@
       <c r="G96" s="37" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H96" s="51"/>
+      <c r="I96" s="51"/>
+    </row>
+    <row r="97" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="37">
         <v>96</v>
       </c>
@@ -8394,8 +8777,10 @@
       <c r="G97" s="37" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H97" s="51"/>
+      <c r="I97" s="51"/>
+    </row>
+    <row r="98" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="37">
         <v>97</v>
       </c>
@@ -8417,8 +8802,10 @@
       <c r="G98" s="37" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+    </row>
+    <row r="99" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="37">
         <v>98</v>
       </c>
@@ -8440,8 +8827,10 @@
       <c r="G99" s="37" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H99" s="51"/>
+      <c r="I99" s="51"/>
+    </row>
+    <row r="100" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="37">
         <v>99</v>
       </c>
@@ -8463,8 +8852,10 @@
       <c r="G100" s="37" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H100" s="51"/>
+      <c r="I100" s="51"/>
+    </row>
+    <row r="101" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="37">
         <v>100</v>
       </c>
@@ -8486,8 +8877,10 @@
       <c r="G101" s="37" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H101" s="51"/>
+      <c r="I101" s="51"/>
+    </row>
+    <row r="102" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="37">
         <v>101</v>
       </c>
@@ -8509,8 +8902,10 @@
       <c r="G102" s="37" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H102" s="51"/>
+      <c r="I102" s="51"/>
+    </row>
+    <row r="103" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="37">
         <v>102</v>
       </c>
@@ -8532,8 +8927,10 @@
       <c r="G103" s="37" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H103" s="51"/>
+      <c r="I103" s="51"/>
+    </row>
+    <row r="104" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="37">
         <v>103</v>
       </c>
@@ -8555,8 +8952,10 @@
       <c r="G104" s="37" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H104" s="51"/>
+      <c r="I104" s="51"/>
+    </row>
+    <row r="105" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="37">
         <v>104</v>
       </c>
@@ -8578,8 +8977,10 @@
       <c r="G105" s="37" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H105" s="51"/>
+      <c r="I105" s="51"/>
+    </row>
+    <row r="106" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="37">
         <v>105</v>
       </c>
@@ -8601,8 +9002,10 @@
       <c r="G106" s="37" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H106" s="51"/>
+      <c r="I106" s="51"/>
+    </row>
+    <row r="107" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="37">
         <v>106</v>
       </c>
@@ -8624,8 +9027,10 @@
       <c r="G107" s="37" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H107" s="51"/>
+      <c r="I107" s="51"/>
+    </row>
+    <row r="108" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="37">
         <v>107</v>
       </c>
@@ -8647,8 +9052,10 @@
       <c r="G108" s="37" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H108" s="51"/>
+      <c r="I108" s="51"/>
+    </row>
+    <row r="109" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="37">
         <v>108</v>
       </c>
@@ -8670,8 +9077,10 @@
       <c r="G109" s="37" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H109" s="51"/>
+      <c r="I109" s="51"/>
+    </row>
+    <row r="110" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="37">
         <v>109</v>
       </c>
@@ -8693,8 +9102,10 @@
       <c r="G110" s="37" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H110" s="51"/>
+      <c r="I110" s="51"/>
+    </row>
+    <row r="111" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="37">
         <v>110</v>
       </c>
@@ -8716,8 +9127,10 @@
       <c r="G111" s="37" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H111" s="51"/>
+      <c r="I111" s="51"/>
+    </row>
+    <row r="112" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="37">
         <v>111</v>
       </c>
@@ -8739,8 +9152,10 @@
       <c r="G112" s="37" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H112" s="51"/>
+      <c r="I112" s="51"/>
+    </row>
+    <row r="113" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="37">
         <v>112</v>
       </c>
@@ -8762,8 +9177,10 @@
       <c r="G113" s="37" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H113" s="51"/>
+      <c r="I113" s="51"/>
+    </row>
+    <row r="114" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="37">
         <v>113</v>
       </c>
@@ -8785,8 +9202,10 @@
       <c r="G114" s="37" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H114" s="51"/>
+      <c r="I114" s="51"/>
+    </row>
+    <row r="115" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="37">
         <v>114</v>
       </c>
@@ -8808,8 +9227,10 @@
       <c r="G115" s="37" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H115" s="51"/>
+      <c r="I115" s="51"/>
+    </row>
+    <row r="116" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="37">
         <v>115</v>
       </c>
@@ -8831,8 +9252,10 @@
       <c r="G116" s="37" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H116" s="51"/>
+      <c r="I116" s="51"/>
+    </row>
+    <row r="117" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="37">
         <v>116</v>
       </c>
@@ -8854,8 +9277,10 @@
       <c r="G117" s="37" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H117" s="51"/>
+      <c r="I117" s="51"/>
+    </row>
+    <row r="118" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="37">
         <v>117</v>
       </c>
@@ -8877,8 +9302,10 @@
       <c r="G118" s="37" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H118" s="51"/>
+      <c r="I118" s="51"/>
+    </row>
+    <row r="119" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="37">
         <v>118</v>
       </c>
@@ -8900,8 +9327,10 @@
       <c r="G119" s="37" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H119" s="51"/>
+      <c r="I119" s="51"/>
+    </row>
+    <row r="120" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="37">
         <v>119</v>
       </c>
@@ -8923,8 +9352,10 @@
       <c r="G120" s="37" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+    </row>
+    <row r="121" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="37">
         <v>120</v>
       </c>
@@ -8946,8 +9377,10 @@
       <c r="G121" s="37" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H121" s="51"/>
+      <c r="I121" s="51"/>
+    </row>
+    <row r="122" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="37">
         <v>121</v>
       </c>
@@ -8969,8 +9402,10 @@
       <c r="G122" s="37" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H122" s="51"/>
+      <c r="I122" s="51"/>
+    </row>
+    <row r="123" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="37">
         <v>122</v>
       </c>
@@ -8992,8 +9427,10 @@
       <c r="G123" s="37" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H123" s="51"/>
+      <c r="I123" s="51"/>
+    </row>
+    <row r="124" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="37">
         <v>123</v>
       </c>
@@ -9015,8 +9452,10 @@
       <c r="G124" s="37" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H124" s="51"/>
+      <c r="I124" s="51"/>
+    </row>
+    <row r="125" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="37">
         <v>124</v>
       </c>
@@ -9038,8 +9477,10 @@
       <c r="G125" s="37" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H125" s="51"/>
+      <c r="I125" s="51"/>
+    </row>
+    <row r="126" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="37">
         <v>125</v>
       </c>
@@ -9061,8 +9502,10 @@
       <c r="G126" s="37" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H126" s="51"/>
+      <c r="I126" s="51"/>
+    </row>
+    <row r="127" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="37">
         <v>126</v>
       </c>
@@ -9084,8 +9527,10 @@
       <c r="G127" s="37" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H127" s="51"/>
+      <c r="I127" s="51"/>
+    </row>
+    <row r="128" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="37">
         <v>127</v>
       </c>
@@ -9107,8 +9552,10 @@
       <c r="G128" s="37" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H128" s="51"/>
+      <c r="I128" s="51"/>
+    </row>
+    <row r="129" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="37">
         <v>128</v>
       </c>
@@ -9130,8 +9577,10 @@
       <c r="G129" s="37" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H129" s="51"/>
+      <c r="I129" s="51"/>
+    </row>
+    <row r="130" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="37">
         <v>129</v>
       </c>
@@ -9153,8 +9602,10 @@
       <c r="G130" s="37" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H130" s="51"/>
+      <c r="I130" s="51"/>
+    </row>
+    <row r="131" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="37">
         <v>130</v>
       </c>
@@ -9176,8 +9627,10 @@
       <c r="G131" s="37" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H131" s="51"/>
+      <c r="I131" s="51"/>
+    </row>
+    <row r="132" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="37">
         <v>131</v>
       </c>
@@ -9199,8 +9652,10 @@
       <c r="G132" s="37" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H132" s="51"/>
+      <c r="I132" s="51"/>
+    </row>
+    <row r="133" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="37">
         <v>132</v>
       </c>
@@ -9222,8 +9677,10 @@
       <c r="G133" s="37" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H133" s="51"/>
+      <c r="I133" s="51"/>
+    </row>
+    <row r="134" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="37">
         <v>133</v>
       </c>
@@ -9245,8 +9702,10 @@
       <c r="G134" s="37" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H134" s="51"/>
+      <c r="I134" s="51"/>
+    </row>
+    <row r="135" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="37">
         <v>134</v>
       </c>
@@ -9268,8 +9727,10 @@
       <c r="G135" s="37" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H135" s="51"/>
+      <c r="I135" s="51"/>
+    </row>
+    <row r="136" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="37">
         <v>135</v>
       </c>
@@ -9291,8 +9752,10 @@
       <c r="G136" s="37" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H136" s="51"/>
+      <c r="I136" s="51"/>
+    </row>
+    <row r="137" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="37">
         <v>136</v>
       </c>
@@ -9314,8 +9777,10 @@
       <c r="G137" s="37" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H137" s="51"/>
+      <c r="I137" s="51"/>
+    </row>
+    <row r="138" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="37">
         <v>137</v>
       </c>
@@ -9337,8 +9802,10 @@
       <c r="G138" s="37" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H138" s="51"/>
+      <c r="I138" s="51"/>
+    </row>
+    <row r="139" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="37">
         <v>138</v>
       </c>
@@ -9360,8 +9827,10 @@
       <c r="G139" s="37" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H139" s="51"/>
+      <c r="I139" s="51"/>
+    </row>
+    <row r="140" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="37">
         <v>139</v>
       </c>
@@ -9383,8 +9852,10 @@
       <c r="G140" s="37" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H140" s="51"/>
+      <c r="I140" s="51"/>
+    </row>
+    <row r="141" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="37">
         <v>140</v>
       </c>
@@ -9406,8 +9877,10 @@
       <c r="G141" s="37" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H141" s="51"/>
+      <c r="I141" s="51"/>
+    </row>
+    <row r="142" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="37">
         <v>141</v>
       </c>
@@ -9429,8 +9902,10 @@
       <c r="G142" s="37" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H142" s="51"/>
+      <c r="I142" s="51"/>
+    </row>
+    <row r="143" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="37">
         <v>142</v>
       </c>
@@ -9452,8 +9927,10 @@
       <c r="G143" s="37" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H143" s="51"/>
+      <c r="I143" s="51"/>
+    </row>
+    <row r="144" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="37">
         <v>143</v>
       </c>
@@ -9475,8 +9952,10 @@
       <c r="G144" s="37" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H144" s="51"/>
+      <c r="I144" s="51"/>
+    </row>
+    <row r="145" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="37">
         <v>144</v>
       </c>
@@ -9498,8 +9977,10 @@
       <c r="G145" s="37" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H145" s="51"/>
+      <c r="I145" s="51"/>
+    </row>
+    <row r="146" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="37">
         <v>145</v>
       </c>
@@ -9521,8 +10002,10 @@
       <c r="G146" s="37" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H146" s="51"/>
+      <c r="I146" s="51"/>
+    </row>
+    <row r="147" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="37">
         <v>146</v>
       </c>
@@ -9544,8 +10027,10 @@
       <c r="G147" s="37" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H147" s="51"/>
+      <c r="I147" s="51"/>
+    </row>
+    <row r="148" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="37">
         <v>147</v>
       </c>
@@ -9567,8 +10052,10 @@
       <c r="G148" s="37" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H148" s="51"/>
+      <c r="I148" s="51"/>
+    </row>
+    <row r="149" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="37">
         <v>148</v>
       </c>
@@ -9590,8 +10077,10 @@
       <c r="G149" s="37" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H149" s="51"/>
+      <c r="I149" s="51"/>
+    </row>
+    <row r="150" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="37">
         <v>149</v>
       </c>
@@ -9613,8 +10102,10 @@
       <c r="G150" s="37" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H150" s="51"/>
+      <c r="I150" s="51"/>
+    </row>
+    <row r="151" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="37">
         <v>150</v>
       </c>
@@ -9636,8 +10127,10 @@
       <c r="G151" s="37" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H151" s="51"/>
+      <c r="I151" s="51"/>
+    </row>
+    <row r="152" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="37">
         <v>151</v>
       </c>
@@ -9659,8 +10152,10 @@
       <c r="G152" s="37" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H152" s="51"/>
+      <c r="I152" s="51"/>
+    </row>
+    <row r="153" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="37">
         <v>152</v>
       </c>
@@ -9682,8 +10177,10 @@
       <c r="G153" s="37" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H153" s="51"/>
+      <c r="I153" s="51"/>
+    </row>
+    <row r="154" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="37">
         <v>153</v>
       </c>
@@ -9705,8 +10202,10 @@
       <c r="G154" s="37" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H154" s="51"/>
+      <c r="I154" s="51"/>
+    </row>
+    <row r="155" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="37">
         <v>154</v>
       </c>
@@ -9728,8 +10227,10 @@
       <c r="G155" s="37" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H155" s="51"/>
+      <c r="I155" s="51"/>
+    </row>
+    <row r="156" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="37">
         <v>155</v>
       </c>
@@ -9751,8 +10252,10 @@
       <c r="G156" s="37" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H156" s="51"/>
+      <c r="I156" s="51"/>
+    </row>
+    <row r="157" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="37">
         <v>156</v>
       </c>
@@ -9774,8 +10277,10 @@
       <c r="G157" s="37" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H157" s="51"/>
+      <c r="I157" s="51"/>
+    </row>
+    <row r="158" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="37">
         <v>157</v>
       </c>
@@ -9797,8 +10302,10 @@
       <c r="G158" s="37" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H158" s="51"/>
+      <c r="I158" s="51"/>
+    </row>
+    <row r="159" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="37">
         <v>158</v>
       </c>
@@ -9820,8 +10327,10 @@
       <c r="G159" s="37" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H159" s="51"/>
+      <c r="I159" s="51"/>
+    </row>
+    <row r="160" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="37">
         <v>159</v>
       </c>
@@ -9843,8 +10352,10 @@
       <c r="G160" s="37" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H160" s="51"/>
+      <c r="I160" s="51"/>
+    </row>
+    <row r="161" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="37">
         <v>160</v>
       </c>
@@ -9866,8 +10377,10 @@
       <c r="G161" s="37" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H161" s="51"/>
+      <c r="I161" s="51"/>
+    </row>
+    <row r="162" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="37">
         <v>161</v>
       </c>
@@ -9889,8 +10402,10 @@
       <c r="G162" s="37" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H162" s="51"/>
+      <c r="I162" s="51"/>
+    </row>
+    <row r="163" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="37">
         <v>162</v>
       </c>
@@ -9912,8 +10427,10 @@
       <c r="G163" s="37" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H163" s="51"/>
+      <c r="I163" s="51"/>
+    </row>
+    <row r="164" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="37">
         <v>163</v>
       </c>
@@ -9935,8 +10452,10 @@
       <c r="G164" s="37" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H164" s="51"/>
+      <c r="I164" s="51"/>
+    </row>
+    <row r="165" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="37">
         <v>164</v>
       </c>
@@ -9958,8 +10477,10 @@
       <c r="G165" s="37" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H165" s="51"/>
+      <c r="I165" s="51"/>
+    </row>
+    <row r="166" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="37">
         <v>165</v>
       </c>
@@ -9981,8 +10502,10 @@
       <c r="G166" s="37" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H166" s="51"/>
+      <c r="I166" s="51"/>
+    </row>
+    <row r="167" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="37">
         <v>166</v>
       </c>
@@ -10004,8 +10527,10 @@
       <c r="G167" s="37" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H167" s="51"/>
+      <c r="I167" s="51"/>
+    </row>
+    <row r="168" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="37">
         <v>167</v>
       </c>
@@ -10027,8 +10552,10 @@
       <c r="G168" s="37" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H168" s="51"/>
+      <c r="I168" s="51"/>
+    </row>
+    <row r="169" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="37">
         <v>168</v>
       </c>
@@ -10050,8 +10577,10 @@
       <c r="G169" s="37" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H169" s="51"/>
+      <c r="I169" s="51"/>
+    </row>
+    <row r="170" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="37">
         <v>169</v>
       </c>
@@ -10073,8 +10602,10 @@
       <c r="G170" s="37" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H170" s="51"/>
+      <c r="I170" s="51"/>
+    </row>
+    <row r="171" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="37">
         <v>170</v>
       </c>
@@ -10096,8 +10627,10 @@
       <c r="G171" s="37" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H171" s="51"/>
+      <c r="I171" s="51"/>
+    </row>
+    <row r="172" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="37">
         <v>171</v>
       </c>
@@ -10119,8 +10652,10 @@
       <c r="G172" s="37" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H172" s="51"/>
+      <c r="I172" s="51"/>
+    </row>
+    <row r="173" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="37">
         <v>172</v>
       </c>
@@ -10142,8 +10677,10 @@
       <c r="G173" s="37" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H173" s="51"/>
+      <c r="I173" s="51"/>
+    </row>
+    <row r="174" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="37">
         <v>173</v>
       </c>
@@ -10165,8 +10702,10 @@
       <c r="G174" s="37" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H174" s="51"/>
+      <c r="I174" s="51"/>
+    </row>
+    <row r="175" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="37">
         <v>174</v>
       </c>
@@ -10188,8 +10727,10 @@
       <c r="G175" s="37" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H175" s="51"/>
+      <c r="I175" s="51"/>
+    </row>
+    <row r="176" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="37">
         <v>175</v>
       </c>
@@ -10211,8 +10752,10 @@
       <c r="G176" s="37" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H176" s="51"/>
+      <c r="I176" s="51"/>
+    </row>
+    <row r="177" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="37">
         <v>176</v>
       </c>
@@ -10234,8 +10777,10 @@
       <c r="G177" s="37" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H177" s="51"/>
+      <c r="I177" s="51"/>
+    </row>
+    <row r="178" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="37">
         <v>177</v>
       </c>
@@ -10257,8 +10802,10 @@
       <c r="G178" s="37" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H178" s="51"/>
+      <c r="I178" s="51"/>
+    </row>
+    <row r="179" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="37">
         <v>178</v>
       </c>
@@ -10280,8 +10827,10 @@
       <c r="G179" s="37" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H179" s="51"/>
+      <c r="I179" s="51"/>
+    </row>
+    <row r="180" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="37">
         <v>179</v>
       </c>
@@ -10303,8 +10852,10 @@
       <c r="G180" s="37" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H180" s="51"/>
+      <c r="I180" s="51"/>
+    </row>
+    <row r="181" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="37">
         <v>180</v>
       </c>
@@ -10326,8 +10877,10 @@
       <c r="G181" s="37" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H181" s="51"/>
+      <c r="I181" s="51"/>
+    </row>
+    <row r="182" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="37">
         <v>181</v>
       </c>
@@ -10349,8 +10902,10 @@
       <c r="G182" s="37" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H182" s="51"/>
+      <c r="I182" s="51"/>
+    </row>
+    <row r="183" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="37">
         <v>182</v>
       </c>
@@ -10372,8 +10927,10 @@
       <c r="G183" s="37" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H183" s="51"/>
+      <c r="I183" s="51"/>
+    </row>
+    <row r="184" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="37">
         <v>183</v>
       </c>
@@ -10395,8 +10952,10 @@
       <c r="G184" s="37" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H184" s="51"/>
+      <c r="I184" s="51"/>
+    </row>
+    <row r="185" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="37">
         <v>184</v>
       </c>
@@ -10418,8 +10977,10 @@
       <c r="G185" s="37" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H185" s="51"/>
+      <c r="I185" s="51"/>
+    </row>
+    <row r="186" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="37">
         <v>185</v>
       </c>
@@ -10441,8 +11002,10 @@
       <c r="G186" s="37" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H186" s="51"/>
+      <c r="I186" s="51"/>
+    </row>
+    <row r="187" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="37">
         <v>186</v>
       </c>
@@ -10464,8 +11027,10 @@
       <c r="G187" s="37" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H187" s="51"/>
+      <c r="I187" s="51"/>
+    </row>
+    <row r="188" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="37">
         <v>187</v>
       </c>
@@ -10487,8 +11052,10 @@
       <c r="G188" s="37" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H188" s="51"/>
+      <c r="I188" s="51"/>
+    </row>
+    <row r="189" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="37">
         <v>188</v>
       </c>
@@ -10510,8 +11077,10 @@
       <c r="G189" s="37" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H189" s="51"/>
+      <c r="I189" s="51"/>
+    </row>
+    <row r="190" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="37">
         <v>189</v>
       </c>
@@ -10533,8 +11102,10 @@
       <c r="G190" s="37" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H190" s="51"/>
+      <c r="I190" s="51"/>
+    </row>
+    <row r="191" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="37">
         <v>190</v>
       </c>
@@ -10556,8 +11127,10 @@
       <c r="G191" s="37" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H191" s="51"/>
+      <c r="I191" s="51"/>
+    </row>
+    <row r="192" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="37">
         <v>191</v>
       </c>
@@ -10579,8 +11152,10 @@
       <c r="G192" s="37" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H192" s="51"/>
+      <c r="I192" s="51"/>
+    </row>
+    <row r="193" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="37">
         <v>192</v>
       </c>
@@ -10602,8 +11177,10 @@
       <c r="G193" s="37" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H193" s="51"/>
+      <c r="I193" s="51"/>
+    </row>
+    <row r="194" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="37">
         <v>193</v>
       </c>
@@ -10625,8 +11202,10 @@
       <c r="G194" s="37" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H194" s="51"/>
+      <c r="I194" s="51"/>
+    </row>
+    <row r="195" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="37">
         <v>194</v>
       </c>
@@ -10648,8 +11227,10 @@
       <c r="G195" s="37" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H195" s="51"/>
+      <c r="I195" s="51"/>
+    </row>
+    <row r="196" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="37">
         <v>195</v>
       </c>
@@ -10671,8 +11252,10 @@
       <c r="G196" s="37" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H196" s="51"/>
+      <c r="I196" s="51"/>
+    </row>
+    <row r="197" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="37">
         <v>196</v>
       </c>
@@ -10694,8 +11277,10 @@
       <c r="G197" s="37" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H197" s="51"/>
+      <c r="I197" s="51"/>
+    </row>
+    <row r="198" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="37">
         <v>197</v>
       </c>
@@ -10717,8 +11302,10 @@
       <c r="G198" s="37" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H198" s="51"/>
+      <c r="I198" s="51"/>
+    </row>
+    <row r="199" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="37">
         <v>198</v>
       </c>
@@ -10740,8 +11327,10 @@
       <c r="G199" s="37" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H199" s="51"/>
+      <c r="I199" s="51"/>
+    </row>
+    <row r="200" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="37">
         <v>199</v>
       </c>
@@ -10763,8 +11352,10 @@
       <c r="G200" s="37" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H200" s="51"/>
+      <c r="I200" s="51"/>
+    </row>
+    <row r="201" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="37">
         <v>200</v>
       </c>
@@ -10786,8 +11377,10 @@
       <c r="G201" s="37" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H201" s="51"/>
+      <c r="I201" s="51"/>
+    </row>
+    <row r="202" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="37">
         <v>201</v>
       </c>
@@ -10809,8 +11402,10 @@
       <c r="G202" s="37" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H202" s="51"/>
+      <c r="I202" s="51"/>
+    </row>
+    <row r="203" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="37">
         <v>202</v>
       </c>
@@ -10832,8 +11427,10 @@
       <c r="G203" s="37" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H203" s="51"/>
+      <c r="I203" s="51"/>
+    </row>
+    <row r="204" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="37">
         <v>203</v>
       </c>
@@ -10855,8 +11452,10 @@
       <c r="G204" s="37" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H204" s="51"/>
+      <c r="I204" s="51"/>
+    </row>
+    <row r="205" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="37">
         <v>204</v>
       </c>
@@ -10878,8 +11477,10 @@
       <c r="G205" s="37" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H205" s="51"/>
+      <c r="I205" s="51"/>
+    </row>
+    <row r="206" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="37">
         <v>205</v>
       </c>
@@ -10901,8 +11502,10 @@
       <c r="G206" s="37" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H206" s="51"/>
+      <c r="I206" s="51"/>
+    </row>
+    <row r="207" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="37">
         <v>206</v>
       </c>
@@ -10924,8 +11527,10 @@
       <c r="G207" s="37" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H207" s="51"/>
+      <c r="I207" s="51"/>
+    </row>
+    <row r="208" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="37">
         <v>207</v>
       </c>
@@ -10947,8 +11552,10 @@
       <c r="G208" s="37" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H208" s="51"/>
+      <c r="I208" s="51"/>
+    </row>
+    <row r="209" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="37">
         <v>208</v>
       </c>
@@ -10970,8 +11577,10 @@
       <c r="G209" s="37" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H209" s="51"/>
+      <c r="I209" s="51"/>
+    </row>
+    <row r="210" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="37">
         <v>209</v>
       </c>
@@ -10993,8 +11602,10 @@
       <c r="G210" s="37" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H210" s="51"/>
+      <c r="I210" s="51"/>
+    </row>
+    <row r="211" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="37">
         <v>210</v>
       </c>
@@ -11016,8 +11627,10 @@
       <c r="G211" s="37" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H211" s="51"/>
+      <c r="I211" s="51"/>
+    </row>
+    <row r="212" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="37">
         <v>211</v>
       </c>
@@ -11039,8 +11652,10 @@
       <c r="G212" s="37" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H212" s="51"/>
+      <c r="I212" s="51"/>
+    </row>
+    <row r="213" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="37">
         <v>212</v>
       </c>
@@ -11062,8 +11677,10 @@
       <c r="G213" s="37" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H213" s="51"/>
+      <c r="I213" s="51"/>
+    </row>
+    <row r="214" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="37">
         <v>213</v>
       </c>
@@ -11085,8 +11702,10 @@
       <c r="G214" s="37" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H214" s="51"/>
+      <c r="I214" s="51"/>
+    </row>
+    <row r="215" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="37">
         <v>214</v>
       </c>
@@ -11108,8 +11727,10 @@
       <c r="G215" s="37" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H215" s="51"/>
+      <c r="I215" s="51"/>
+    </row>
+    <row r="216" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="37">
         <v>215</v>
       </c>
@@ -11131,8 +11752,10 @@
       <c r="G216" s="37" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H216" s="51"/>
+      <c r="I216" s="51"/>
+    </row>
+    <row r="217" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="37">
         <v>216</v>
       </c>
@@ -11154,8 +11777,10 @@
       <c r="G217" s="37" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H217" s="51"/>
+      <c r="I217" s="51"/>
+    </row>
+    <row r="218" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="37">
         <v>217</v>
       </c>
@@ -11177,8 +11802,10 @@
       <c r="G218" s="37" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H218" s="51"/>
+      <c r="I218" s="51"/>
+    </row>
+    <row r="219" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="37">
         <v>218</v>
       </c>
@@ -11200,8 +11827,10 @@
       <c r="G219" s="37" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H219" s="51"/>
+      <c r="I219" s="51"/>
+    </row>
+    <row r="220" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="37">
         <v>219</v>
       </c>
@@ -11223,8 +11852,10 @@
       <c r="G220" s="37" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H220" s="51"/>
+      <c r="I220" s="51"/>
+    </row>
+    <row r="221" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="37">
         <v>220</v>
       </c>
@@ -11246,8 +11877,10 @@
       <c r="G221" s="37" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H221" s="51"/>
+      <c r="I221" s="51"/>
+    </row>
+    <row r="222" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="37">
         <v>221</v>
       </c>
@@ -11269,8 +11902,10 @@
       <c r="G222" s="37" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H222" s="51"/>
+      <c r="I222" s="51"/>
+    </row>
+    <row r="223" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="37">
         <v>222</v>
       </c>
@@ -11292,8 +11927,10 @@
       <c r="G223" s="37" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H223" s="51"/>
+      <c r="I223" s="51"/>
+    </row>
+    <row r="224" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="37">
         <v>223</v>
       </c>
@@ -11315,8 +11952,10 @@
       <c r="G224" s="37" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H224" s="51"/>
+      <c r="I224" s="51"/>
+    </row>
+    <row r="225" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="37">
         <v>224</v>
       </c>
@@ -11338,8 +11977,10 @@
       <c r="G225" s="37" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H225" s="51"/>
+      <c r="I225" s="51"/>
+    </row>
+    <row r="226" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="37">
         <v>225</v>
       </c>
@@ -11361,8 +12002,10 @@
       <c r="G226" s="37" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H226" s="51"/>
+      <c r="I226" s="51"/>
+    </row>
+    <row r="227" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="37">
         <v>226</v>
       </c>
@@ -11384,8 +12027,10 @@
       <c r="G227" s="37" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H227" s="51"/>
+      <c r="I227" s="51"/>
+    </row>
+    <row r="228" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="37">
         <v>227</v>
       </c>
@@ -11407,8 +12052,10 @@
       <c r="G228" s="37" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H228" s="51"/>
+      <c r="I228" s="51"/>
+    </row>
+    <row r="229" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="37">
         <v>228</v>
       </c>
@@ -11430,8 +12077,10 @@
       <c r="G229" s="37" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H229" s="51"/>
+      <c r="I229" s="51"/>
+    </row>
+    <row r="230" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="37">
         <v>229</v>
       </c>
@@ -11453,8 +12102,10 @@
       <c r="G230" s="37" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H230" s="51"/>
+      <c r="I230" s="51"/>
+    </row>
+    <row r="231" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="37">
         <v>230</v>
       </c>
@@ -11476,8 +12127,10 @@
       <c r="G231" s="37" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H231" s="51"/>
+      <c r="I231" s="51"/>
+    </row>
+    <row r="232" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="37">
         <v>231</v>
       </c>
@@ -11499,8 +12152,10 @@
       <c r="G232" s="37" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H232" s="51"/>
+      <c r="I232" s="51"/>
+    </row>
+    <row r="233" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="37">
         <v>232</v>
       </c>
@@ -11522,8 +12177,10 @@
       <c r="G233" s="37" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H233" s="51"/>
+      <c r="I233" s="51"/>
+    </row>
+    <row r="234" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="37">
         <v>233</v>
       </c>
@@ -11545,8 +12202,10 @@
       <c r="G234" s="37" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H234" s="51"/>
+      <c r="I234" s="51"/>
+    </row>
+    <row r="235" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="37">
         <v>234</v>
       </c>
@@ -11568,8 +12227,10 @@
       <c r="G235" s="37" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H235" s="51"/>
+      <c r="I235" s="51"/>
+    </row>
+    <row r="236" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="37">
         <v>235</v>
       </c>
@@ -11591,8 +12252,10 @@
       <c r="G236" s="37" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H236" s="51"/>
+      <c r="I236" s="51"/>
+    </row>
+    <row r="237" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="37">
         <v>236</v>
       </c>
@@ -11614,8 +12277,10 @@
       <c r="G237" s="37" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H237" s="51"/>
+      <c r="I237" s="51"/>
+    </row>
+    <row r="238" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="37">
         <v>237</v>
       </c>
@@ -11637,8 +12302,10 @@
       <c r="G238" s="37" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H238" s="51"/>
+      <c r="I238" s="51"/>
+    </row>
+    <row r="239" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="37">
         <v>238</v>
       </c>
@@ -11660,8 +12327,10 @@
       <c r="G239" s="37" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H239" s="51"/>
+      <c r="I239" s="51"/>
+    </row>
+    <row r="240" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="37">
         <v>239</v>
       </c>
@@ -11683,8 +12352,10 @@
       <c r="G240" s="37" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H240" s="51"/>
+      <c r="I240" s="51"/>
+    </row>
+    <row r="241" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="37">
         <v>240</v>
       </c>
@@ -11706,8 +12377,10 @@
       <c r="G241" s="37" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H241" s="51"/>
+      <c r="I241" s="51"/>
+    </row>
+    <row r="242" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="37">
         <v>241</v>
       </c>
@@ -11729,8 +12402,10 @@
       <c r="G242" s="37" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H242" s="51"/>
+      <c r="I242" s="51"/>
+    </row>
+    <row r="243" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="37">
         <v>242</v>
       </c>
@@ -11752,8 +12427,10 @@
       <c r="G243" s="37" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H243" s="51"/>
+      <c r="I243" s="51"/>
+    </row>
+    <row r="244" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="37">
         <v>243</v>
       </c>
@@ -11775,8 +12452,10 @@
       <c r="G244" s="37" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H244" s="51"/>
+      <c r="I244" s="51"/>
+    </row>
+    <row r="245" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="37">
         <v>244</v>
       </c>
@@ -11798,8 +12477,10 @@
       <c r="G245" s="37" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H245" s="51"/>
+      <c r="I245" s="51"/>
+    </row>
+    <row r="246" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="37">
         <v>245</v>
       </c>
@@ -11821,8 +12502,10 @@
       <c r="G246" s="37" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H246" s="51"/>
+      <c r="I246" s="51"/>
+    </row>
+    <row r="247" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="37">
         <v>246</v>
       </c>
@@ -11844,8 +12527,10 @@
       <c r="G247" s="37" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H247" s="51"/>
+      <c r="I247" s="51"/>
+    </row>
+    <row r="248" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="37">
         <v>247</v>
       </c>
@@ -11867,8 +12552,10 @@
       <c r="G248" s="37" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H248" s="51"/>
+      <c r="I248" s="51"/>
+    </row>
+    <row r="249" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="37">
         <v>248</v>
       </c>
@@ -11890,8 +12577,10 @@
       <c r="G249" s="37" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H249" s="51"/>
+      <c r="I249" s="51"/>
+    </row>
+    <row r="250" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="37">
         <v>249</v>
       </c>
@@ -11913,8 +12602,10 @@
       <c r="G250" s="37" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H250" s="51"/>
+      <c r="I250" s="51"/>
+    </row>
+    <row r="251" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="37">
         <v>250</v>
       </c>
@@ -11936,8 +12627,10 @@
       <c r="G251" s="37" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H251" s="51"/>
+      <c r="I251" s="51"/>
+    </row>
+    <row r="252" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="37">
         <v>251</v>
       </c>
@@ -11959,8 +12652,10 @@
       <c r="G252" s="37" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H252" s="51"/>
+      <c r="I252" s="51"/>
+    </row>
+    <row r="253" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="37">
         <v>252</v>
       </c>
@@ -11982,8 +12677,10 @@
       <c r="G253" s="37" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H253" s="51"/>
+      <c r="I253" s="51"/>
+    </row>
+    <row r="254" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="37">
         <v>253</v>
       </c>
@@ -12005,8 +12702,10 @@
       <c r="G254" s="37" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H254" s="51"/>
+      <c r="I254" s="51"/>
+    </row>
+    <row r="255" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="37">
         <v>254</v>
       </c>
@@ -12028,8 +12727,10 @@
       <c r="G255" s="37" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H255" s="51"/>
+      <c r="I255" s="51"/>
+    </row>
+    <row r="256" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="37">
         <v>255</v>
       </c>
@@ -12051,8 +12752,10 @@
       <c r="G256" s="37" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H256" s="51"/>
+      <c r="I256" s="51"/>
+    </row>
+    <row r="257" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="37">
         <v>256</v>
       </c>
@@ -12074,8 +12777,10 @@
       <c r="G257" s="37" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H257" s="51"/>
+      <c r="I257" s="51"/>
+    </row>
+    <row r="258" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="37">
         <v>257</v>
       </c>
@@ -12097,8 +12802,10 @@
       <c r="G258" s="37" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H258" s="51"/>
+      <c r="I258" s="51"/>
+    </row>
+    <row r="259" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="37">
         <v>258</v>
       </c>
@@ -12120,8 +12827,10 @@
       <c r="G259" s="37" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H259" s="51"/>
+      <c r="I259" s="51"/>
+    </row>
+    <row r="260" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="37">
         <v>259</v>
       </c>
@@ -12143,8 +12852,10 @@
       <c r="G260" s="37" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H260" s="51"/>
+      <c r="I260" s="51"/>
+    </row>
+    <row r="261" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="37">
         <v>260</v>
       </c>
@@ -12166,8 +12877,10 @@
       <c r="G261" s="37" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H261" s="51"/>
+      <c r="I261" s="51"/>
+    </row>
+    <row r="262" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="37">
         <v>261</v>
       </c>
@@ -12189,8 +12902,10 @@
       <c r="G262" s="37" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H262" s="51"/>
+      <c r="I262" s="51"/>
+    </row>
+    <row r="263" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="37">
         <v>262</v>
       </c>
@@ -12212,8 +12927,10 @@
       <c r="G263" s="37" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H263" s="51"/>
+      <c r="I263" s="51"/>
+    </row>
+    <row r="264" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="37">
         <v>263</v>
       </c>
@@ -12235,8 +12952,10 @@
       <c r="G264" s="37" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H264" s="51"/>
+      <c r="I264" s="51"/>
+    </row>
+    <row r="265" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="37">
         <v>264</v>
       </c>
@@ -12258,8 +12977,10 @@
       <c r="G265" s="37" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H265" s="51"/>
+      <c r="I265" s="51"/>
+    </row>
+    <row r="266" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="37">
         <v>265</v>
       </c>
@@ -12281,8 +13002,10 @@
       <c r="G266" s="37" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H266" s="51"/>
+      <c r="I266" s="51"/>
+    </row>
+    <row r="267" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="37">
         <v>266</v>
       </c>
@@ -12304,8 +13027,10 @@
       <c r="G267" s="37" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H267" s="51"/>
+      <c r="I267" s="51"/>
+    </row>
+    <row r="268" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="37">
         <v>267</v>
       </c>
@@ -12327,8 +13052,10 @@
       <c r="G268" s="37" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H268" s="51"/>
+      <c r="I268" s="51"/>
+    </row>
+    <row r="269" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="37">
         <v>268</v>
       </c>
@@ -12350,8 +13077,10 @@
       <c r="G269" s="37" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H269" s="51"/>
+      <c r="I269" s="51"/>
+    </row>
+    <row r="270" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="37">
         <v>269</v>
       </c>
@@ -12373,8 +13102,10 @@
       <c r="G270" s="37" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H270" s="51"/>
+      <c r="I270" s="51"/>
+    </row>
+    <row r="271" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="37">
         <v>270</v>
       </c>
@@ -12396,8 +13127,10 @@
       <c r="G271" s="37" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H271" s="51"/>
+      <c r="I271" s="51"/>
+    </row>
+    <row r="272" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="37">
         <v>271</v>
       </c>
@@ -12419,8 +13152,10 @@
       <c r="G272" s="37" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H272" s="51"/>
+      <c r="I272" s="51"/>
+    </row>
+    <row r="273" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="37">
         <v>272</v>
       </c>
@@ -12442,8 +13177,10 @@
       <c r="G273" s="37" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H273" s="51"/>
+      <c r="I273" s="51"/>
+    </row>
+    <row r="274" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="37">
         <v>273</v>
       </c>
@@ -12465,8 +13202,10 @@
       <c r="G274" s="37" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H274" s="51"/>
+      <c r="I274" s="51"/>
+    </row>
+    <row r="275" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="37">
         <v>274</v>
       </c>
@@ -12488,8 +13227,10 @@
       <c r="G275" s="37" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H275" s="51"/>
+      <c r="I275" s="51"/>
+    </row>
+    <row r="276" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="37">
         <v>275</v>
       </c>
@@ -12511,8 +13252,10 @@
       <c r="G276" s="37" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H276" s="51"/>
+      <c r="I276" s="51"/>
+    </row>
+    <row r="277" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="37">
         <v>276</v>
       </c>
@@ -12534,8 +13277,10 @@
       <c r="G277" s="37" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H277" s="51"/>
+      <c r="I277" s="51"/>
+    </row>
+    <row r="278" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="37">
         <v>277</v>
       </c>
@@ -12557,8 +13302,10 @@
       <c r="G278" s="37" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H278" s="51"/>
+      <c r="I278" s="51"/>
+    </row>
+    <row r="279" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="37">
         <v>278</v>
       </c>
@@ -12580,8 +13327,10 @@
       <c r="G279" s="37" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H279" s="51"/>
+      <c r="I279" s="51"/>
+    </row>
+    <row r="280" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="37">
         <v>279</v>
       </c>
@@ -12603,8 +13352,10 @@
       <c r="G280" s="37" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H280" s="51"/>
+      <c r="I280" s="51"/>
+    </row>
+    <row r="281" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="37">
         <v>280</v>
       </c>
@@ -12626,8 +13377,10 @@
       <c r="G281" s="37" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H281" s="51"/>
+      <c r="I281" s="51"/>
+    </row>
+    <row r="282" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="37">
         <v>281</v>
       </c>
@@ -12649,8 +13402,10 @@
       <c r="G282" s="37" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H282" s="51"/>
+      <c r="I282" s="51"/>
+    </row>
+    <row r="283" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="37">
         <v>282</v>
       </c>
@@ -12672,1324 +13427,1326 @@
       <c r="G283" s="37" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="H283" s="51"/>
+      <c r="I283" s="51"/>
+    </row>
+    <row r="284" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B284" s="38"/>
       <c r="E284" s="36"/>
       <c r="F284" s="38"/>
       <c r="G284" s="38"/>
       <c r="H284" s="38"/>
     </row>
-    <row r="285" spans="1:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B285" s="38"/>
       <c r="E285" s="36"/>
       <c r="F285" s="38"/>
       <c r="G285" s="38"/>
       <c r="H285" s="38"/>
     </row>
-    <row r="286" spans="1:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B286" s="38"/>
       <c r="E286" s="36"/>
       <c r="F286" s="38"/>
       <c r="G286" s="38"/>
       <c r="H286" s="38"/>
     </row>
-    <row r="287" spans="1:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B287" s="38"/>
       <c r="E287" s="36"/>
       <c r="F287" s="38"/>
       <c r="G287" s="38"/>
       <c r="H287" s="38"/>
     </row>
-    <row r="288" spans="1:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B288" s="38"/>
       <c r="E288" s="36"/>
       <c r="F288" s="38"/>
       <c r="G288" s="38"/>
       <c r="H288" s="38"/>
     </row>
-    <row r="289" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B289" s="38"/>
       <c r="E289" s="36"/>
       <c r="F289" s="38"/>
       <c r="G289" s="38"/>
       <c r="H289" s="38"/>
     </row>
-    <row r="290" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B290" s="38"/>
       <c r="E290" s="36"/>
       <c r="F290" s="38"/>
       <c r="G290" s="38"/>
       <c r="H290" s="38"/>
     </row>
-    <row r="291" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B291" s="38"/>
       <c r="E291" s="36"/>
       <c r="F291" s="38"/>
       <c r="G291" s="38"/>
       <c r="H291" s="38"/>
     </row>
-    <row r="292" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B292" s="38"/>
       <c r="E292" s="36"/>
       <c r="F292" s="38"/>
       <c r="G292" s="38"/>
       <c r="H292" s="38"/>
     </row>
-    <row r="293" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B293" s="38"/>
       <c r="E293" s="36"/>
       <c r="F293" s="38"/>
       <c r="G293" s="38"/>
       <c r="H293" s="38"/>
     </row>
-    <row r="294" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B294" s="38"/>
       <c r="E294" s="36"/>
       <c r="F294" s="38"/>
       <c r="G294" s="38"/>
       <c r="H294" s="38"/>
     </row>
-    <row r="295" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B295" s="38"/>
       <c r="E295" s="36"/>
       <c r="F295" s="38"/>
       <c r="G295" s="38"/>
       <c r="H295" s="38"/>
     </row>
-    <row r="296" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B296" s="38"/>
       <c r="E296" s="36"/>
       <c r="F296" s="38"/>
       <c r="G296" s="38"/>
       <c r="H296" s="38"/>
     </row>
-    <row r="297" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B297" s="38"/>
       <c r="E297" s="36"/>
       <c r="F297" s="38"/>
       <c r="G297" s="38"/>
       <c r="H297" s="38"/>
     </row>
-    <row r="298" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B298" s="38"/>
       <c r="E298" s="36"/>
       <c r="F298" s="38"/>
       <c r="G298" s="38"/>
       <c r="H298" s="38"/>
     </row>
-    <row r="299" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B299" s="38"/>
       <c r="E299" s="36"/>
       <c r="F299" s="38"/>
       <c r="G299" s="38"/>
       <c r="H299" s="38"/>
     </row>
-    <row r="300" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B300" s="38"/>
       <c r="E300" s="36"/>
       <c r="F300" s="38"/>
       <c r="G300" s="38"/>
       <c r="H300" s="38"/>
     </row>
-    <row r="301" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B301" s="38"/>
       <c r="E301" s="36"/>
       <c r="F301" s="38"/>
       <c r="G301" s="38"/>
       <c r="H301" s="38"/>
     </row>
-    <row r="302" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B302" s="38"/>
       <c r="E302" s="36"/>
       <c r="F302" s="38"/>
       <c r="G302" s="38"/>
       <c r="H302" s="38"/>
     </row>
-    <row r="303" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B303" s="38"/>
       <c r="E303" s="36"/>
       <c r="F303" s="38"/>
       <c r="G303" s="38"/>
       <c r="H303" s="38"/>
     </row>
-    <row r="304" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B304" s="38"/>
       <c r="E304" s="36"/>
       <c r="F304" s="38"/>
       <c r="G304" s="38"/>
       <c r="H304" s="38"/>
     </row>
-    <row r="305" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B305" s="38"/>
       <c r="E305" s="36"/>
       <c r="F305" s="38"/>
       <c r="G305" s="38"/>
       <c r="H305" s="38"/>
     </row>
-    <row r="306" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B306" s="38"/>
       <c r="E306" s="36"/>
       <c r="F306" s="38"/>
       <c r="G306" s="38"/>
       <c r="H306" s="38"/>
     </row>
-    <row r="307" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B307" s="38"/>
       <c r="E307" s="36"/>
       <c r="F307" s="38"/>
       <c r="G307" s="38"/>
       <c r="H307" s="38"/>
     </row>
-    <row r="308" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B308" s="38"/>
       <c r="E308" s="36"/>
       <c r="F308" s="38"/>
       <c r="G308" s="38"/>
       <c r="H308" s="38"/>
     </row>
-    <row r="309" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B309" s="38"/>
       <c r="E309" s="36"/>
       <c r="F309" s="38"/>
       <c r="G309" s="38"/>
       <c r="H309" s="38"/>
     </row>
-    <row r="310" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B310" s="38"/>
       <c r="E310" s="36"/>
       <c r="F310" s="38"/>
       <c r="G310" s="38"/>
       <c r="H310" s="38"/>
     </row>
-    <row r="311" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B311" s="38"/>
       <c r="E311" s="36"/>
       <c r="F311" s="38"/>
       <c r="G311" s="38"/>
       <c r="H311" s="38"/>
     </row>
-    <row r="312" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B312" s="38"/>
       <c r="E312" s="36"/>
       <c r="F312" s="38"/>
       <c r="G312" s="38"/>
       <c r="H312" s="38"/>
     </row>
-    <row r="313" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B313" s="38"/>
       <c r="E313" s="36"/>
       <c r="F313" s="38"/>
       <c r="G313" s="38"/>
       <c r="H313" s="38"/>
     </row>
-    <row r="314" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B314" s="38"/>
       <c r="E314" s="36"/>
       <c r="F314" s="38"/>
       <c r="G314" s="38"/>
       <c r="H314" s="38"/>
     </row>
-    <row r="315" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B315" s="38"/>
       <c r="E315" s="36"/>
       <c r="F315" s="38"/>
       <c r="G315" s="38"/>
       <c r="H315" s="38"/>
     </row>
-    <row r="316" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B316" s="38"/>
       <c r="E316" s="36"/>
       <c r="F316" s="38"/>
       <c r="G316" s="38"/>
       <c r="H316" s="38"/>
     </row>
-    <row r="317" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B317" s="38"/>
       <c r="E317" s="36"/>
       <c r="F317" s="38"/>
       <c r="G317" s="38"/>
       <c r="H317" s="38"/>
     </row>
-    <row r="318" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B318" s="38"/>
       <c r="E318" s="36"/>
       <c r="F318" s="38"/>
       <c r="G318" s="38"/>
       <c r="H318" s="38"/>
     </row>
-    <row r="319" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B319" s="38"/>
       <c r="E319" s="36"/>
       <c r="F319" s="38"/>
       <c r="G319" s="38"/>
       <c r="H319" s="38"/>
     </row>
-    <row r="320" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B320" s="38"/>
       <c r="E320" s="36"/>
       <c r="F320" s="38"/>
       <c r="G320" s="38"/>
       <c r="H320" s="38"/>
     </row>
-    <row r="321" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B321" s="38"/>
       <c r="E321" s="36"/>
       <c r="F321" s="38"/>
       <c r="G321" s="38"/>
       <c r="H321" s="38"/>
     </row>
-    <row r="322" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B322" s="38"/>
       <c r="E322" s="36"/>
       <c r="F322" s="38"/>
       <c r="G322" s="38"/>
       <c r="H322" s="38"/>
     </row>
-    <row r="323" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B323" s="38"/>
       <c r="E323" s="36"/>
       <c r="F323" s="38"/>
       <c r="G323" s="38"/>
       <c r="H323" s="38"/>
     </row>
-    <row r="324" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B324" s="38"/>
       <c r="E324" s="36"/>
       <c r="F324" s="38"/>
       <c r="G324" s="38"/>
       <c r="H324" s="38"/>
     </row>
-    <row r="325" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B325" s="38"/>
       <c r="E325" s="36"/>
       <c r="F325" s="38"/>
       <c r="G325" s="38"/>
       <c r="H325" s="38"/>
     </row>
-    <row r="326" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B326" s="38"/>
       <c r="E326" s="36"/>
       <c r="F326" s="38"/>
       <c r="G326" s="38"/>
       <c r="H326" s="38"/>
     </row>
-    <row r="327" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B327" s="38"/>
       <c r="E327" s="36"/>
       <c r="F327" s="38"/>
       <c r="G327" s="38"/>
       <c r="H327" s="38"/>
     </row>
-    <row r="328" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B328" s="38"/>
       <c r="E328" s="36"/>
       <c r="F328" s="38"/>
       <c r="G328" s="38"/>
       <c r="H328" s="38"/>
     </row>
-    <row r="329" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B329" s="38"/>
       <c r="E329" s="36"/>
       <c r="F329" s="38"/>
       <c r="G329" s="38"/>
       <c r="H329" s="38"/>
     </row>
-    <row r="330" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B330" s="38"/>
       <c r="E330" s="36"/>
       <c r="F330" s="38"/>
       <c r="G330" s="38"/>
       <c r="H330" s="38"/>
     </row>
-    <row r="331" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B331" s="38"/>
       <c r="E331" s="36"/>
       <c r="F331" s="38"/>
       <c r="G331" s="38"/>
       <c r="H331" s="38"/>
     </row>
-    <row r="332" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B332" s="38"/>
       <c r="E332" s="36"/>
       <c r="F332" s="38"/>
       <c r="G332" s="38"/>
       <c r="H332" s="38"/>
     </row>
-    <row r="333" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B333" s="38"/>
       <c r="E333" s="36"/>
       <c r="F333" s="38"/>
       <c r="G333" s="38"/>
       <c r="H333" s="38"/>
     </row>
-    <row r="334" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B334" s="38"/>
       <c r="E334" s="36"/>
       <c r="F334" s="38"/>
       <c r="G334" s="38"/>
       <c r="H334" s="38"/>
     </row>
-    <row r="335" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B335" s="38"/>
       <c r="E335" s="36"/>
       <c r="F335" s="38"/>
       <c r="G335" s="38"/>
       <c r="H335" s="38"/>
     </row>
-    <row r="336" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B336" s="38"/>
       <c r="E336" s="36"/>
       <c r="F336" s="38"/>
       <c r="G336" s="38"/>
       <c r="H336" s="38"/>
     </row>
-    <row r="337" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B337" s="38"/>
       <c r="E337" s="36"/>
       <c r="F337" s="38"/>
       <c r="G337" s="38"/>
       <c r="H337" s="38"/>
     </row>
-    <row r="338" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B338" s="38"/>
       <c r="E338" s="36"/>
       <c r="F338" s="38"/>
       <c r="G338" s="38"/>
       <c r="H338" s="38"/>
     </row>
-    <row r="339" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B339" s="38"/>
       <c r="E339" s="36"/>
       <c r="F339" s="38"/>
       <c r="G339" s="38"/>
       <c r="H339" s="38"/>
     </row>
-    <row r="340" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B340" s="38"/>
       <c r="E340" s="36"/>
       <c r="F340" s="38"/>
       <c r="G340" s="38"/>
       <c r="H340" s="38"/>
     </row>
-    <row r="341" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B341" s="38"/>
       <c r="E341" s="36"/>
       <c r="F341" s="38"/>
       <c r="G341" s="38"/>
       <c r="H341" s="38"/>
     </row>
-    <row r="342" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B342" s="38"/>
       <c r="E342" s="36"/>
       <c r="F342" s="38"/>
       <c r="G342" s="38"/>
       <c r="H342" s="38"/>
     </row>
-    <row r="343" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B343" s="38"/>
       <c r="E343" s="36"/>
       <c r="F343" s="38"/>
       <c r="G343" s="38"/>
       <c r="H343" s="38"/>
     </row>
-    <row r="344" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B344" s="38"/>
       <c r="E344" s="36"/>
       <c r="F344" s="38"/>
       <c r="G344" s="38"/>
       <c r="H344" s="38"/>
     </row>
-    <row r="345" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B345" s="38"/>
       <c r="E345" s="36"/>
       <c r="F345" s="38"/>
       <c r="G345" s="38"/>
       <c r="H345" s="38"/>
     </row>
-    <row r="346" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B346" s="38"/>
       <c r="E346" s="36"/>
       <c r="F346" s="38"/>
       <c r="G346" s="38"/>
       <c r="H346" s="38"/>
     </row>
-    <row r="347" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B347" s="38"/>
       <c r="E347" s="36"/>
       <c r="F347" s="38"/>
       <c r="G347" s="38"/>
       <c r="H347" s="38"/>
     </row>
-    <row r="348" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B348" s="38"/>
       <c r="E348" s="36"/>
       <c r="F348" s="38"/>
       <c r="G348" s="38"/>
       <c r="H348" s="38"/>
     </row>
-    <row r="349" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B349" s="38"/>
       <c r="E349" s="36"/>
       <c r="F349" s="38"/>
       <c r="G349" s="38"/>
       <c r="H349" s="38"/>
     </row>
-    <row r="350" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B350" s="38"/>
       <c r="E350" s="36"/>
       <c r="F350" s="38"/>
       <c r="G350" s="38"/>
       <c r="H350" s="38"/>
     </row>
-    <row r="351" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B351" s="38"/>
       <c r="E351" s="36"/>
       <c r="F351" s="38"/>
       <c r="G351" s="38"/>
       <c r="H351" s="38"/>
     </row>
-    <row r="352" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B352" s="38"/>
       <c r="E352" s="36"/>
       <c r="F352" s="38"/>
       <c r="G352" s="38"/>
       <c r="H352" s="38"/>
     </row>
-    <row r="353" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B353" s="38"/>
       <c r="E353" s="36"/>
       <c r="F353" s="38"/>
       <c r="G353" s="38"/>
       <c r="H353" s="38"/>
     </row>
-    <row r="354" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B354" s="38"/>
       <c r="E354" s="36"/>
       <c r="F354" s="38"/>
       <c r="G354" s="38"/>
       <c r="H354" s="38"/>
     </row>
-    <row r="355" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B355" s="38"/>
       <c r="E355" s="36"/>
       <c r="F355" s="38"/>
       <c r="G355" s="38"/>
       <c r="H355" s="38"/>
     </row>
-    <row r="356" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B356" s="38"/>
       <c r="E356" s="36"/>
       <c r="F356" s="38"/>
       <c r="G356" s="38"/>
       <c r="H356" s="38"/>
     </row>
-    <row r="357" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B357" s="38"/>
       <c r="E357" s="36"/>
       <c r="F357" s="38"/>
       <c r="G357" s="38"/>
       <c r="H357" s="38"/>
     </row>
-    <row r="358" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B358" s="38"/>
       <c r="E358" s="36"/>
       <c r="F358" s="38"/>
       <c r="G358" s="38"/>
       <c r="H358" s="38"/>
     </row>
-    <row r="359" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B359" s="38"/>
       <c r="E359" s="36"/>
       <c r="F359" s="38"/>
       <c r="G359" s="38"/>
       <c r="H359" s="38"/>
     </row>
-    <row r="360" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B360" s="38"/>
       <c r="E360" s="36"/>
       <c r="F360" s="38"/>
       <c r="G360" s="38"/>
       <c r="H360" s="38"/>
     </row>
-    <row r="361" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B361" s="38"/>
       <c r="E361" s="36"/>
       <c r="F361" s="38"/>
       <c r="G361" s="38"/>
       <c r="H361" s="38"/>
     </row>
-    <row r="362" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B362" s="38"/>
       <c r="E362" s="36"/>
       <c r="F362" s="38"/>
       <c r="G362" s="38"/>
       <c r="H362" s="38"/>
     </row>
-    <row r="363" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B363" s="38"/>
       <c r="E363" s="36"/>
       <c r="F363" s="38"/>
       <c r="G363" s="38"/>
       <c r="H363" s="38"/>
     </row>
-    <row r="364" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B364" s="39"/>
       <c r="E364" s="36"/>
       <c r="F364" s="39"/>
       <c r="G364" s="38"/>
       <c r="H364" s="38"/>
     </row>
-    <row r="365" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B365" s="39"/>
       <c r="E365" s="36"/>
       <c r="F365" s="39"/>
       <c r="G365" s="38"/>
       <c r="H365" s="38"/>
     </row>
-    <row r="366" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B366" s="39"/>
       <c r="E366" s="36"/>
       <c r="F366" s="39"/>
       <c r="G366" s="38"/>
       <c r="H366" s="38"/>
     </row>
-    <row r="367" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B367" s="38"/>
       <c r="E367" s="36"/>
       <c r="F367" s="38"/>
       <c r="G367" s="38"/>
       <c r="H367" s="38"/>
     </row>
-    <row r="368" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B368" s="38"/>
       <c r="E368" s="36"/>
       <c r="F368" s="38"/>
       <c r="G368" s="38"/>
       <c r="H368" s="38"/>
     </row>
-    <row r="369" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B369" s="38"/>
       <c r="E369" s="36"/>
       <c r="F369" s="38"/>
       <c r="G369" s="38"/>
       <c r="H369" s="38"/>
     </row>
-    <row r="370" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B370" s="38"/>
       <c r="E370" s="36"/>
       <c r="F370" s="38"/>
       <c r="G370" s="38"/>
       <c r="H370" s="38"/>
     </row>
-    <row r="371" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B371" s="39"/>
       <c r="E371" s="36"/>
       <c r="F371" s="39"/>
       <c r="G371" s="38"/>
       <c r="H371" s="38"/>
     </row>
-    <row r="372" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B372" s="39"/>
       <c r="E372" s="36"/>
       <c r="F372" s="39"/>
       <c r="G372" s="38"/>
       <c r="H372" s="38"/>
     </row>
-    <row r="373" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B373" s="39"/>
       <c r="E373" s="36"/>
       <c r="F373" s="39"/>
       <c r="G373" s="38"/>
       <c r="H373" s="38"/>
     </row>
-    <row r="374" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B374" s="39"/>
       <c r="E374" s="36"/>
       <c r="F374" s="39"/>
       <c r="G374" s="38"/>
       <c r="H374" s="38"/>
     </row>
-    <row r="375" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B375" s="38"/>
       <c r="E375" s="36"/>
       <c r="F375" s="38"/>
       <c r="G375" s="38"/>
       <c r="H375" s="38"/>
     </row>
-    <row r="376" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B376" s="38"/>
       <c r="E376" s="36"/>
       <c r="F376" s="38"/>
       <c r="G376" s="38"/>
       <c r="H376" s="38"/>
     </row>
-    <row r="377" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B377" s="38"/>
       <c r="E377" s="36"/>
       <c r="F377" s="38"/>
       <c r="G377" s="38"/>
       <c r="H377" s="38"/>
     </row>
-    <row r="378" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B378" s="38"/>
       <c r="E378" s="36"/>
       <c r="F378" s="38"/>
       <c r="G378" s="38"/>
       <c r="H378" s="38"/>
     </row>
-    <row r="379" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B379" s="38"/>
       <c r="E379" s="36"/>
       <c r="F379" s="38"/>
       <c r="G379" s="38"/>
       <c r="H379" s="38"/>
     </row>
-    <row r="380" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B380" s="38"/>
       <c r="E380" s="36"/>
       <c r="F380" s="38"/>
       <c r="G380" s="38"/>
       <c r="H380" s="38"/>
     </row>
-    <row r="381" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B381" s="38"/>
       <c r="E381" s="36"/>
       <c r="F381" s="38"/>
       <c r="G381" s="38"/>
       <c r="H381" s="38"/>
     </row>
-    <row r="382" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B382" s="38"/>
       <c r="E382" s="36"/>
       <c r="F382" s="38"/>
       <c r="G382" s="38"/>
       <c r="H382" s="38"/>
     </row>
-    <row r="383" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B383" s="38"/>
       <c r="E383" s="36"/>
       <c r="F383" s="38"/>
       <c r="G383" s="38"/>
       <c r="H383" s="38"/>
     </row>
-    <row r="384" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B384" s="38"/>
       <c r="E384" s="36"/>
       <c r="F384" s="38"/>
       <c r="G384" s="38"/>
       <c r="H384" s="38"/>
     </row>
-    <row r="385" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B385" s="38"/>
       <c r="E385" s="36"/>
       <c r="F385" s="38"/>
       <c r="G385" s="38"/>
       <c r="H385" s="38"/>
     </row>
-    <row r="386" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B386" s="38"/>
       <c r="E386" s="36"/>
       <c r="F386" s="38"/>
       <c r="G386" s="38"/>
       <c r="H386" s="38"/>
     </row>
-    <row r="387" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B387" s="38"/>
       <c r="E387" s="36"/>
       <c r="F387" s="38"/>
       <c r="G387" s="38"/>
       <c r="H387" s="38"/>
     </row>
-    <row r="388" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B388" s="38"/>
       <c r="E388" s="36"/>
       <c r="F388" s="38"/>
       <c r="G388" s="38"/>
       <c r="H388" s="38"/>
     </row>
-    <row r="389" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B389" s="38"/>
       <c r="E389" s="36"/>
       <c r="F389" s="38"/>
       <c r="G389" s="38"/>
       <c r="H389" s="38"/>
     </row>
-    <row r="390" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B390" s="38"/>
       <c r="E390" s="36"/>
       <c r="F390" s="38"/>
       <c r="G390" s="38"/>
       <c r="H390" s="38"/>
     </row>
-    <row r="391" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B391" s="38"/>
       <c r="E391" s="36"/>
       <c r="F391" s="38"/>
       <c r="G391" s="38"/>
       <c r="H391" s="38"/>
     </row>
-    <row r="392" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B392" s="38"/>
       <c r="E392" s="36"/>
       <c r="F392" s="38"/>
       <c r="G392" s="38"/>
       <c r="H392" s="38"/>
     </row>
-    <row r="393" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B393" s="38"/>
       <c r="E393" s="36"/>
       <c r="F393" s="38"/>
       <c r="G393" s="38"/>
       <c r="H393" s="38"/>
     </row>
-    <row r="394" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B394" s="38"/>
       <c r="E394" s="36"/>
       <c r="F394" s="38"/>
       <c r="G394" s="38"/>
       <c r="H394" s="38"/>
     </row>
-    <row r="395" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B395" s="38"/>
       <c r="E395" s="36"/>
       <c r="F395" s="38"/>
       <c r="G395" s="38"/>
       <c r="H395" s="38"/>
     </row>
-    <row r="396" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B396" s="38"/>
       <c r="E396" s="36"/>
       <c r="F396" s="38"/>
       <c r="G396" s="38"/>
       <c r="H396" s="38"/>
     </row>
-    <row r="397" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B397" s="38"/>
       <c r="E397" s="36"/>
       <c r="F397" s="38"/>
       <c r="G397" s="38"/>
       <c r="H397" s="38"/>
     </row>
-    <row r="398" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B398" s="38"/>
       <c r="E398" s="36"/>
       <c r="F398" s="38"/>
       <c r="G398" s="38"/>
       <c r="H398" s="38"/>
     </row>
-    <row r="399" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B399" s="38"/>
       <c r="E399" s="36"/>
       <c r="F399" s="38"/>
       <c r="G399" s="38"/>
       <c r="H399" s="38"/>
     </row>
-    <row r="400" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B400" s="38"/>
       <c r="E400" s="36"/>
       <c r="F400" s="38"/>
       <c r="G400" s="38"/>
       <c r="H400" s="38"/>
     </row>
-    <row r="401" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B401" s="38"/>
       <c r="E401" s="36"/>
       <c r="F401" s="38"/>
       <c r="G401" s="38"/>
       <c r="H401" s="38"/>
     </row>
-    <row r="402" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B402" s="39"/>
       <c r="E402" s="36"/>
       <c r="F402" s="39"/>
       <c r="G402" s="38"/>
       <c r="H402" s="38"/>
     </row>
-    <row r="403" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B403" s="39"/>
       <c r="E403" s="36"/>
       <c r="F403" s="39"/>
       <c r="G403" s="38"/>
       <c r="H403" s="38"/>
     </row>
-    <row r="404" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B404" s="39"/>
       <c r="E404" s="36"/>
       <c r="F404" s="39"/>
       <c r="G404" s="38"/>
       <c r="H404" s="38"/>
     </row>
-    <row r="405" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B405" s="38"/>
       <c r="E405" s="36"/>
       <c r="F405" s="38"/>
       <c r="G405" s="38"/>
       <c r="H405" s="38"/>
     </row>
-    <row r="406" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B406" s="38"/>
       <c r="E406" s="36"/>
       <c r="F406" s="38"/>
       <c r="G406" s="38"/>
       <c r="H406" s="38"/>
     </row>
-    <row r="407" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B407" s="38"/>
       <c r="E407" s="36"/>
       <c r="F407" s="38"/>
       <c r="G407" s="38"/>
       <c r="H407" s="38"/>
     </row>
-    <row r="408" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B408" s="38"/>
       <c r="E408" s="36"/>
       <c r="F408" s="38"/>
       <c r="G408" s="38"/>
       <c r="H408" s="38"/>
     </row>
-    <row r="409" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B409" s="38"/>
       <c r="E409" s="36"/>
       <c r="F409" s="38"/>
       <c r="G409" s="38"/>
       <c r="H409" s="38"/>
     </row>
-    <row r="410" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B410" s="38"/>
       <c r="E410" s="36"/>
       <c r="F410" s="38"/>
       <c r="G410" s="38"/>
       <c r="H410" s="38"/>
     </row>
-    <row r="411" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B411" s="38"/>
       <c r="E411" s="36"/>
       <c r="F411" s="38"/>
       <c r="G411" s="38"/>
       <c r="H411" s="38"/>
     </row>
-    <row r="412" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B412" s="38"/>
       <c r="E412" s="36"/>
       <c r="F412" s="38"/>
       <c r="G412" s="38"/>
       <c r="H412" s="38"/>
     </row>
-    <row r="413" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B413" s="38"/>
       <c r="E413" s="36"/>
       <c r="F413" s="38"/>
       <c r="G413" s="38"/>
       <c r="H413" s="38"/>
     </row>
-    <row r="414" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B414" s="38"/>
       <c r="E414" s="36"/>
       <c r="F414" s="38"/>
       <c r="G414" s="38"/>
       <c r="H414" s="38"/>
     </row>
-    <row r="415" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B415" s="38"/>
       <c r="E415" s="36"/>
       <c r="F415" s="38"/>
       <c r="G415" s="38"/>
       <c r="H415" s="38"/>
     </row>
-    <row r="416" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B416" s="38"/>
       <c r="E416" s="36"/>
       <c r="F416" s="38"/>
       <c r="G416" s="38"/>
       <c r="H416" s="38"/>
     </row>
-    <row r="417" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B417" s="38"/>
       <c r="E417" s="36"/>
       <c r="F417" s="38"/>
       <c r="G417" s="38"/>
       <c r="H417" s="38"/>
     </row>
-    <row r="418" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B418" s="38"/>
       <c r="E418" s="36"/>
       <c r="F418" s="38"/>
       <c r="G418" s="38"/>
       <c r="H418" s="38"/>
     </row>
-    <row r="419" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B419" s="38"/>
       <c r="E419" s="36"/>
       <c r="F419" s="38"/>
       <c r="G419" s="38"/>
       <c r="H419" s="38"/>
     </row>
-    <row r="420" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B420" s="38"/>
       <c r="E420" s="36"/>
       <c r="F420" s="38"/>
       <c r="G420" s="38"/>
       <c r="H420" s="38"/>
     </row>
-    <row r="421" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B421" s="38"/>
       <c r="E421" s="36"/>
       <c r="F421" s="38"/>
       <c r="G421" s="38"/>
       <c r="H421" s="38"/>
     </row>
-    <row r="422" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B422" s="38"/>
       <c r="E422" s="36"/>
       <c r="F422" s="38"/>
       <c r="G422" s="38"/>
       <c r="H422" s="38"/>
     </row>
-    <row r="423" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B423" s="38"/>
       <c r="E423" s="36"/>
       <c r="F423" s="38"/>
       <c r="G423" s="38"/>
       <c r="H423" s="38"/>
     </row>
-    <row r="424" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B424" s="38"/>
       <c r="E424" s="36"/>
       <c r="F424" s="38"/>
       <c r="G424" s="38"/>
       <c r="H424" s="38"/>
     </row>
-    <row r="425" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B425" s="38"/>
       <c r="E425" s="36"/>
       <c r="F425" s="38"/>
       <c r="G425" s="38"/>
       <c r="H425" s="38"/>
     </row>
-    <row r="426" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B426" s="38"/>
       <c r="E426" s="36"/>
       <c r="F426" s="38"/>
       <c r="G426" s="38"/>
       <c r="H426" s="38"/>
     </row>
-    <row r="427" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B427" s="38"/>
       <c r="E427" s="36"/>
       <c r="F427" s="38"/>
       <c r="G427" s="38"/>
       <c r="H427" s="38"/>
     </row>
-    <row r="428" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B428" s="38"/>
       <c r="E428" s="36"/>
       <c r="F428" s="38"/>
       <c r="G428" s="38"/>
       <c r="H428" s="38"/>
     </row>
-    <row r="429" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B429" s="38"/>
       <c r="E429" s="36"/>
       <c r="F429" s="38"/>
       <c r="G429" s="38"/>
       <c r="H429" s="38"/>
     </row>
-    <row r="430" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B430" s="38"/>
       <c r="E430" s="36"/>
       <c r="F430" s="38"/>
       <c r="G430" s="38"/>
       <c r="H430" s="38"/>
     </row>
-    <row r="431" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B431" s="40"/>
       <c r="E431" s="36"/>
       <c r="F431" s="40"/>
       <c r="G431" s="40"/>
       <c r="H431" s="40"/>
     </row>
-    <row r="432" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B432" s="38"/>
       <c r="E432" s="36"/>
       <c r="F432" s="38"/>
       <c r="G432" s="38"/>
       <c r="H432" s="41"/>
     </row>
-    <row r="433" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B433" s="38"/>
       <c r="E433" s="36"/>
       <c r="F433" s="38"/>
       <c r="G433" s="38"/>
       <c r="H433" s="41"/>
     </row>
-    <row r="434" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B434" s="38"/>
       <c r="E434" s="36"/>
       <c r="F434" s="38"/>
       <c r="G434" s="38"/>
       <c r="H434" s="41"/>
     </row>
-    <row r="435" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B435" s="38"/>
       <c r="E435" s="36"/>
       <c r="F435" s="38"/>
       <c r="G435" s="38"/>
       <c r="H435" s="38"/>
     </row>
-    <row r="436" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B436" s="38"/>
       <c r="E436" s="36"/>
       <c r="F436" s="38"/>
       <c r="G436" s="38"/>
       <c r="H436" s="38"/>
     </row>
-    <row r="437" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B437" s="38"/>
       <c r="E437" s="36"/>
       <c r="F437" s="38"/>
       <c r="G437" s="38"/>
       <c r="H437" s="41"/>
     </row>
-    <row r="438" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B438" s="38"/>
       <c r="E438" s="36"/>
       <c r="F438" s="38"/>
       <c r="G438" s="38"/>
       <c r="H438" s="41"/>
     </row>
-    <row r="439" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B439" s="38"/>
       <c r="E439" s="36"/>
       <c r="F439" s="38"/>
       <c r="G439" s="38"/>
       <c r="H439" s="38"/>
     </row>
-    <row r="440" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B440" s="38"/>
       <c r="E440" s="36"/>
       <c r="F440" s="38"/>
       <c r="G440" s="38"/>
       <c r="H440" s="38"/>
     </row>
-    <row r="441" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B441" s="40"/>
       <c r="E441" s="36"/>
       <c r="F441" s="40"/>
       <c r="G441" s="40"/>
       <c r="H441" s="40"/>
     </row>
-    <row r="442" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B442" s="38"/>
       <c r="E442" s="36"/>
       <c r="F442" s="38"/>
       <c r="G442" s="38"/>
       <c r="H442" s="41"/>
     </row>
-    <row r="443" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B443" s="38"/>
       <c r="E443" s="36"/>
       <c r="F443" s="38"/>
       <c r="G443" s="38"/>
       <c r="H443" s="41"/>
     </row>
-    <row r="444" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B444" s="38"/>
       <c r="E444" s="36"/>
       <c r="F444" s="38"/>
       <c r="G444" s="38"/>
       <c r="H444" s="38"/>
     </row>
-    <row r="445" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B445" s="38"/>
       <c r="E445" s="36"/>
       <c r="F445" s="38"/>
       <c r="G445" s="38"/>
       <c r="H445" s="38"/>
     </row>
-    <row r="446" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B446" s="38"/>
       <c r="E446" s="36"/>
       <c r="F446" s="38"/>
       <c r="G446" s="38"/>
       <c r="H446" s="38"/>
     </row>
-    <row r="447" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B447" s="38"/>
       <c r="E447" s="36"/>
       <c r="F447" s="38"/>
       <c r="G447" s="38"/>
       <c r="H447" s="38"/>
     </row>
-    <row r="448" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B448" s="38"/>
       <c r="E448" s="36"/>
       <c r="F448" s="38"/>
       <c r="G448" s="38"/>
       <c r="H448" s="38"/>
     </row>
-    <row r="449" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B449" s="38"/>
       <c r="E449" s="36"/>
       <c r="F449" s="38"/>
       <c r="G449" s="38"/>
       <c r="H449" s="38"/>
     </row>
-    <row r="450" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B450" s="38"/>
       <c r="E450" s="36"/>
       <c r="F450" s="38"/>
       <c r="G450" s="38"/>
       <c r="H450" s="41"/>
     </row>
-    <row r="451" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B451" s="38"/>
       <c r="E451" s="36"/>
       <c r="F451" s="38"/>
       <c r="G451" s="38"/>
       <c r="H451" s="41"/>
     </row>
-    <row r="452" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B452" s="38"/>
       <c r="E452" s="36"/>
       <c r="F452" s="38"/>
       <c r="G452" s="38"/>
       <c r="H452" s="41"/>
     </row>
-    <row r="453" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B453" s="38"/>
       <c r="E453" s="36"/>
       <c r="F453" s="38"/>
       <c r="G453" s="38"/>
       <c r="H453" s="38"/>
     </row>
-    <row r="454" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B454" s="38"/>
       <c r="E454" s="36"/>
       <c r="F454" s="38"/>
       <c r="G454" s="38"/>
       <c r="H454" s="38"/>
     </row>
-    <row r="455" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B455" s="38"/>
       <c r="E455" s="36"/>
       <c r="F455" s="38"/>
       <c r="G455" s="38"/>
       <c r="H455" s="38"/>
     </row>
-    <row r="456" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B456" s="38"/>
       <c r="E456" s="36"/>
       <c r="F456" s="38"/>
       <c r="G456" s="38"/>
       <c r="H456" s="41"/>
     </row>
-    <row r="457" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B457" s="38"/>
       <c r="E457" s="36"/>
       <c r="F457" s="38"/>
       <c r="G457" s="38"/>
       <c r="H457" s="41"/>
     </row>
-    <row r="458" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B458" s="40"/>
       <c r="E458" s="36"/>
       <c r="F458" s="40"/>
       <c r="G458" s="40"/>
       <c r="H458" s="40"/>
     </row>
-    <row r="459" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B459" s="38"/>
       <c r="E459" s="36"/>
       <c r="F459" s="38"/>
       <c r="G459" s="38"/>
       <c r="H459" s="41"/>
     </row>
-    <row r="460" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B460" s="38"/>
       <c r="E460" s="36"/>
       <c r="F460" s="38"/>
       <c r="G460" s="38"/>
       <c r="H460" s="41"/>
     </row>
-    <row r="461" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B461" s="38"/>
       <c r="E461" s="36"/>
       <c r="F461" s="38"/>
       <c r="G461" s="38"/>
       <c r="H461" s="41"/>
     </row>
-    <row r="462" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B462" s="38"/>
       <c r="E462" s="36"/>
       <c r="F462" s="38"/>
       <c r="G462" s="38"/>
       <c r="H462" s="41"/>
     </row>
-    <row r="463" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B463" s="38"/>
       <c r="E463" s="36"/>
       <c r="F463" s="38"/>
       <c r="G463" s="38"/>
       <c r="H463" s="38"/>
     </row>
-    <row r="464" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B464" s="38"/>
       <c r="E464" s="36"/>
       <c r="F464" s="38"/>
       <c r="G464" s="38"/>
       <c r="H464" s="38"/>
     </row>
-    <row r="465" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B465" s="38"/>
       <c r="E465" s="36"/>
       <c r="F465" s="38"/>
       <c r="G465" s="38"/>
       <c r="H465" s="38"/>
     </row>
-    <row r="466" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B466" s="38"/>
       <c r="E466" s="36"/>
       <c r="F466" s="38"/>
       <c r="G466" s="38"/>
       <c r="H466" s="38"/>
     </row>
-    <row r="467" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B467" s="38"/>
       <c r="E467" s="36"/>
       <c r="F467" s="38"/>
       <c r="G467" s="38"/>
       <c r="H467" s="38"/>
     </row>
-    <row r="468" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B468" s="40"/>
       <c r="E468" s="36"/>
       <c r="F468" s="40"/>
       <c r="G468" s="40"/>
       <c r="H468" s="40"/>
     </row>
-    <row r="469" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B469" s="38"/>
       <c r="E469" s="36"/>
       <c r="F469" s="38"/>
       <c r="G469" s="38"/>
       <c r="H469" s="38"/>
     </row>
-    <row r="470" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B470" s="40"/>
       <c r="E470" s="36"/>
       <c r="F470" s="40"/>
       <c r="G470" s="40"/>
       <c r="H470" s="40"/>
     </row>
-    <row r="471" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B471" s="38"/>
       <c r="E471" s="36"/>
       <c r="F471" s="38"/>
       <c r="G471" s="38"/>
       <c r="H471" s="38"/>
     </row>
-    <row r="472" spans="2:8" ht="13.2" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B472" s="38"/>
       <c r="E472" s="36"/>
       <c r="F472" s="38"/>
@@ -14015,24 +14772,25 @@
       <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="3.6640625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="5.109375" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" style="30" customWidth="1"/>
-    <col min="12" max="13" width="20.77734375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="24.88671875" style="31" customWidth="1"/>
-    <col min="17" max="17" width="16.88671875" style="19" customWidth="1"/>
-    <col min="18" max="75" width="8.88671875" style="20" customWidth="1"/>
-    <col min="76" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="5.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="3.7109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="30" customWidth="1"/>
+    <col min="12" max="13" width="20.7109375" style="31" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="24.85546875" style="31" customWidth="1"/>
+    <col min="16" max="16" width="9.140625"/>
+    <col min="17" max="17" width="16.85546875" style="19" customWidth="1"/>
+    <col min="18" max="75" width="8.85546875" style="20" customWidth="1"/>
+    <col min="76" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:75" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="47" t="s">
@@ -14119,7 +14877,7 @@
       <c r="BV1" s="33"/>
       <c r="BW1" s="33"/>
     </row>
-    <row r="2" spans="1:75" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:75" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -14208,7 +14966,7 @@
       <c r="BV2" s="33"/>
       <c r="BW2" s="33"/>
     </row>
-    <row r="3" spans="1:75" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:75" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>476</v>
       </c>
@@ -14257,7 +15015,7 @@
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
     </row>
-    <row r="4" spans="1:75" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:75" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -14302,7 +15060,7 @@
       <c r="N4" s="49"/>
       <c r="O4" s="49"/>
     </row>
-    <row r="5" spans="1:75" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -14347,7 +15105,7 @@
       <c r="N5" s="49"/>
       <c r="O5" s="49"/>
     </row>
-    <row r="6" spans="1:75" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -14392,7 +15150,7 @@
       <c r="N6" s="49"/>
       <c r="O6" s="49"/>
     </row>
-    <row r="7" spans="1:75" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -14437,7 +15195,7 @@
       <c r="N7" s="49"/>
       <c r="O7" s="49"/>
     </row>
-    <row r="8" spans="1:75" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -14482,7 +15240,7 @@
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
     </row>
-    <row r="9" spans="1:75" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -14527,7 +15285,7 @@
       <c r="N9" s="49"/>
       <c r="O9" s="49"/>
     </row>
-    <row r="10" spans="1:75" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:75" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -14572,7 +15330,7 @@
       <c r="N10" s="49"/>
       <c r="O10" s="49"/>
     </row>
-    <row r="11" spans="1:75" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:75" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -14617,7 +15375,7 @@
       <c r="N11" s="49"/>
       <c r="O11" s="49"/>
     </row>
-    <row r="12" spans="1:75" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:75" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -14662,7 +15420,7 @@
       <c r="N12" s="49"/>
       <c r="O12" s="49"/>
     </row>
-    <row r="13" spans="1:75" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:75" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -14707,7 +15465,7 @@
       <c r="N13" s="49"/>
       <c r="O13" s="49"/>
     </row>
-    <row r="14" spans="1:75" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:75" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -14752,7 +15510,7 @@
       <c r="N14" s="49"/>
       <c r="O14" s="49"/>
     </row>
-    <row r="15" spans="1:75" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:75" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -14797,7 +15555,7 @@
       <c r="N15" s="49"/>
       <c r="O15" s="49"/>
     </row>
-    <row r="16" spans="1:75" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:75" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -14842,7 +15600,7 @@
       <c r="N16" s="49"/>
       <c r="O16" s="49"/>
     </row>
-    <row r="17" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -14887,7 +15645,7 @@
       <c r="N17" s="49"/>
       <c r="O17" s="49"/>
     </row>
-    <row r="18" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -14932,7 +15690,7 @@
       <c r="N18" s="49"/>
       <c r="O18" s="49"/>
     </row>
-    <row r="19" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -14977,7 +15735,7 @@
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
     </row>
-    <row r="20" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -15022,7 +15780,7 @@
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
     </row>
-    <row r="21" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -15067,7 +15825,7 @@
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
     </row>
-    <row r="22" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -15112,7 +15870,7 @@
       <c r="N22" s="49"/>
       <c r="O22" s="49"/>
     </row>
-    <row r="23" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -15157,7 +15915,7 @@
       <c r="N23" s="49"/>
       <c r="O23" s="49"/>
     </row>
-    <row r="24" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -15202,7 +15960,7 @@
       <c r="N24" s="49"/>
       <c r="O24" s="49"/>
     </row>
-    <row r="25" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -15247,7 +16005,7 @@
       <c r="N25" s="49"/>
       <c r="O25" s="49"/>
     </row>
-    <row r="26" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -15292,7 +16050,7 @@
       <c r="N26" s="49"/>
       <c r="O26" s="49"/>
     </row>
-    <row r="27" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -15337,7 +16095,7 @@
       <c r="N27" s="49"/>
       <c r="O27" s="49"/>
     </row>
-    <row r="28" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -15382,7 +16140,7 @@
       <c r="N28" s="49"/>
       <c r="O28" s="49"/>
     </row>
-    <row r="29" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -15427,7 +16185,7 @@
       <c r="N29" s="49"/>
       <c r="O29" s="49"/>
     </row>
-    <row r="30" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -15472,7 +16230,7 @@
       <c r="N30" s="49"/>
       <c r="O30" s="49"/>
     </row>
-    <row r="31" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -15517,7 +16275,7 @@
       <c r="N31" s="49"/>
       <c r="O31" s="49"/>
     </row>
-    <row r="32" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -15562,7 +16320,7 @@
       <c r="N32" s="49"/>
       <c r="O32" s="49"/>
     </row>
-    <row r="33" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -15607,7 +16365,7 @@
       <c r="N33" s="49"/>
       <c r="O33" s="49"/>
     </row>
-    <row r="34" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>31</v>
       </c>
@@ -15652,7 +16410,7 @@
       <c r="N34" s="49"/>
       <c r="O34" s="49"/>
     </row>
-    <row r="35" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -15697,7 +16455,7 @@
       <c r="N35" s="49"/>
       <c r="O35" s="49"/>
     </row>
-    <row r="36" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>33</v>
       </c>
@@ -15742,7 +16500,7 @@
       <c r="N36" s="49"/>
       <c r="O36" s="49"/>
     </row>
-    <row r="37" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -15787,7 +16545,7 @@
       <c r="N37" s="49"/>
       <c r="O37" s="49"/>
     </row>
-    <row r="38" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>35</v>
       </c>
@@ -15832,7 +16590,7 @@
       <c r="N38" s="49"/>
       <c r="O38" s="49"/>
     </row>
-    <row r="39" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -15877,7 +16635,7 @@
       <c r="N39" s="49"/>
       <c r="O39" s="49"/>
     </row>
-    <row r="40" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>37</v>
       </c>
@@ -15922,7 +16680,7 @@
       <c r="N40" s="49"/>
       <c r="O40" s="49"/>
     </row>
-    <row r="41" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -15967,7 +16725,7 @@
       <c r="N41" s="49"/>
       <c r="O41" s="49"/>
     </row>
-    <row r="42" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>39</v>
       </c>
@@ -16012,7 +16770,7 @@
       <c r="N42" s="49"/>
       <c r="O42" s="49"/>
     </row>
-    <row r="43" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -16057,7 +16815,7 @@
       <c r="N43" s="49"/>
       <c r="O43" s="49"/>
     </row>
-    <row r="44" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>41</v>
       </c>
@@ -16102,7 +16860,7 @@
       <c r="N44" s="49"/>
       <c r="O44" s="49"/>
     </row>
-    <row r="45" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -16147,7 +16905,7 @@
       <c r="N45" s="49"/>
       <c r="O45" s="49"/>
     </row>
-    <row r="46" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>43</v>
       </c>
@@ -16192,7 +16950,7 @@
       <c r="N46" s="49"/>
       <c r="O46" s="49"/>
     </row>
-    <row r="47" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>44</v>
       </c>
@@ -16237,7 +16995,7 @@
       <c r="N47" s="49"/>
       <c r="O47" s="49"/>
     </row>
-    <row r="48" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>45</v>
       </c>
@@ -16282,7 +17040,7 @@
       <c r="N48" s="49"/>
       <c r="O48" s="49"/>
     </row>
-    <row r="49" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>46</v>
       </c>
@@ -16327,7 +17085,7 @@
       <c r="N49" s="49"/>
       <c r="O49" s="49"/>
     </row>
-    <row r="50" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>47</v>
       </c>
@@ -16372,7 +17130,7 @@
       <c r="N50" s="49"/>
       <c r="O50" s="49"/>
     </row>
-    <row r="51" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>48</v>
       </c>
@@ -16417,7 +17175,7 @@
       <c r="N51" s="49"/>
       <c r="O51" s="49"/>
     </row>
-    <row r="52" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>49</v>
       </c>
@@ -16462,7 +17220,7 @@
       <c r="N52" s="49"/>
       <c r="O52" s="49"/>
     </row>
-    <row r="53" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>50</v>
       </c>
@@ -16507,7 +17265,7 @@
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
     </row>
-    <row r="54" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>51</v>
       </c>
@@ -16552,7 +17310,7 @@
       <c r="N54" s="49"/>
       <c r="O54" s="49"/>
     </row>
-    <row r="55" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>52</v>
       </c>
@@ -16597,7 +17355,7 @@
       <c r="N55" s="49"/>
       <c r="O55" s="49"/>
     </row>
-    <row r="56" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>53</v>
       </c>
@@ -16642,7 +17400,7 @@
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
     </row>
-    <row r="57" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>54</v>
       </c>
@@ -16687,7 +17445,7 @@
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
     </row>
-    <row r="58" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>55</v>
       </c>
@@ -16732,7 +17490,7 @@
       <c r="N58" s="49"/>
       <c r="O58" s="49"/>
     </row>
-    <row r="59" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>56</v>
       </c>
@@ -16777,7 +17535,7 @@
       <c r="N59" s="49"/>
       <c r="O59" s="49"/>
     </row>
-    <row r="60" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>57</v>
       </c>
@@ -16822,7 +17580,7 @@
       <c r="N60" s="49"/>
       <c r="O60" s="49"/>
     </row>
-    <row r="61" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>58</v>
       </c>
@@ -16867,7 +17625,7 @@
       <c r="N61" s="49"/>
       <c r="O61" s="49"/>
     </row>
-    <row r="62" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>59</v>
       </c>
@@ -16912,7 +17670,7 @@
       <c r="N62" s="49"/>
       <c r="O62" s="49"/>
     </row>
-    <row r="63" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>60</v>
       </c>
@@ -16957,7 +17715,7 @@
       <c r="N63" s="49"/>
       <c r="O63" s="49"/>
     </row>
-    <row r="64" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>61</v>
       </c>
@@ -17002,7 +17760,7 @@
       <c r="N64" s="49"/>
       <c r="O64" s="49"/>
     </row>
-    <row r="65" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>62</v>
       </c>
@@ -17047,7 +17805,7 @@
       <c r="N65" s="49"/>
       <c r="O65" s="49"/>
     </row>
-    <row r="66" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>63</v>
       </c>
@@ -17092,7 +17850,7 @@
       <c r="N66" s="49"/>
       <c r="O66" s="49"/>
     </row>
-    <row r="67" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>64</v>
       </c>
@@ -17137,7 +17895,7 @@
       <c r="N67" s="49"/>
       <c r="O67" s="49"/>
     </row>
-    <row r="68" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>65</v>
       </c>
@@ -17182,7 +17940,7 @@
       <c r="N68" s="49"/>
       <c r="O68" s="49"/>
     </row>
-    <row r="69" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>66</v>
       </c>
@@ -17227,7 +17985,7 @@
       <c r="N69" s="49"/>
       <c r="O69" s="49"/>
     </row>
-    <row r="70" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>67</v>
       </c>
@@ -17272,7 +18030,7 @@
       <c r="N70" s="49"/>
       <c r="O70" s="49"/>
     </row>
-    <row r="71" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>68</v>
       </c>
@@ -17317,7 +18075,7 @@
       <c r="N71" s="49"/>
       <c r="O71" s="49"/>
     </row>
-    <row r="72" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>69</v>
       </c>
@@ -17362,7 +18120,7 @@
       <c r="N72" s="49"/>
       <c r="O72" s="49"/>
     </row>
-    <row r="73" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>70</v>
       </c>
@@ -17407,7 +18165,7 @@
       <c r="N73" s="49"/>
       <c r="O73" s="49"/>
     </row>
-    <row r="74" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>71</v>
       </c>
@@ -17452,7 +18210,7 @@
       <c r="N74" s="49"/>
       <c r="O74" s="49"/>
     </row>
-    <row r="75" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>72</v>
       </c>
@@ -17497,7 +18255,7 @@
       <c r="N75" s="49"/>
       <c r="O75" s="49"/>
     </row>
-    <row r="76" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>73</v>
       </c>
@@ -17542,7 +18300,7 @@
       <c r="N76" s="49"/>
       <c r="O76" s="49"/>
     </row>
-    <row r="77" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>74</v>
       </c>
@@ -17587,7 +18345,7 @@
       <c r="N77" s="49"/>
       <c r="O77" s="49"/>
     </row>
-    <row r="78" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
         <v>75</v>
       </c>
@@ -17632,7 +18390,7 @@
       <c r="N78" s="49"/>
       <c r="O78" s="49"/>
     </row>
-    <row r="79" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -17677,7 +18435,7 @@
       <c r="N79" s="49"/>
       <c r="O79" s="49"/>
     </row>
-    <row r="80" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>77</v>
       </c>
@@ -17722,7 +18480,7 @@
       <c r="N80" s="49"/>
       <c r="O80" s="49"/>
     </row>
-    <row r="81" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -17767,7 +18525,7 @@
       <c r="N81" s="49"/>
       <c r="O81" s="49"/>
     </row>
-    <row r="82" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
         <v>79</v>
       </c>
@@ -17812,7 +18570,7 @@
       <c r="N82" s="49"/>
       <c r="O82" s="49"/>
     </row>
-    <row r="83" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -17857,7 +18615,7 @@
       <c r="N83" s="49"/>
       <c r="O83" s="49"/>
     </row>
-    <row r="84" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
         <v>81</v>
       </c>
@@ -17902,7 +18660,7 @@
       <c r="N84" s="49"/>
       <c r="O84" s="49"/>
     </row>
-    <row r="85" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -17947,7 +18705,7 @@
       <c r="N85" s="49"/>
       <c r="O85" s="49"/>
     </row>
-    <row r="86" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
         <v>83</v>
       </c>
@@ -17992,7 +18750,7 @@
       <c r="N86" s="49"/>
       <c r="O86" s="49"/>
     </row>
-    <row r="87" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -18037,7 +18795,7 @@
       <c r="N87" s="49"/>
       <c r="O87" s="49"/>
     </row>
-    <row r="88" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>85</v>
       </c>
@@ -18082,7 +18840,7 @@
       <c r="N88" s="49"/>
       <c r="O88" s="49"/>
     </row>
-    <row r="89" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>86</v>
       </c>
@@ -18127,7 +18885,7 @@
       <c r="N89" s="49"/>
       <c r="O89" s="49"/>
     </row>
-    <row r="90" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <v>87</v>
       </c>
@@ -18172,7 +18930,7 @@
       <c r="N90" s="49"/>
       <c r="O90" s="49"/>
     </row>
-    <row r="91" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -18217,7 +18975,7 @@
       <c r="N91" s="49"/>
       <c r="O91" s="49"/>
     </row>
-    <row r="92" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
         <v>89</v>
       </c>
@@ -18262,7 +19020,7 @@
       <c r="N92" s="49"/>
       <c r="O92" s="49"/>
     </row>
-    <row r="93" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -18307,7 +19065,7 @@
       <c r="N93" s="49"/>
       <c r="O93" s="49"/>
     </row>
-    <row r="94" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
         <v>91</v>
       </c>
@@ -18352,7 +19110,7 @@
       <c r="N94" s="49"/>
       <c r="O94" s="49"/>
     </row>
-    <row r="95" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>92</v>
       </c>
@@ -18397,7 +19155,7 @@
       <c r="N95" s="49"/>
       <c r="O95" s="49"/>
     </row>
-    <row r="96" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
         <v>93</v>
       </c>
@@ -18442,7 +19200,7 @@
       <c r="N96" s="49"/>
       <c r="O96" s="49"/>
     </row>
-    <row r="97" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -18487,7 +19245,7 @@
       <c r="N97" s="49"/>
       <c r="O97" s="49"/>
     </row>
-    <row r="98" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
         <v>95</v>
       </c>
@@ -18532,7 +19290,7 @@
       <c r="N98" s="49"/>
       <c r="O98" s="49"/>
     </row>
-    <row r="99" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -18577,7 +19335,7 @@
       <c r="N99" s="49"/>
       <c r="O99" s="49"/>
     </row>
-    <row r="100" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
         <v>97</v>
       </c>
@@ -18622,7 +19380,7 @@
       <c r="N100" s="49"/>
       <c r="O100" s="49"/>
     </row>
-    <row r="101" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>98</v>
       </c>
@@ -18667,7 +19425,7 @@
       <c r="N101" s="49"/>
       <c r="O101" s="49"/>
     </row>
-    <row r="102" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
         <v>99</v>
       </c>
@@ -18712,7 +19470,7 @@
       <c r="N102" s="49"/>
       <c r="O102" s="49"/>
     </row>
-    <row r="103" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>100</v>
       </c>
@@ -18757,7 +19515,7 @@
       <c r="N103" s="49"/>
       <c r="O103" s="49"/>
     </row>
-    <row r="104" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10">
         <v>101</v>
       </c>
@@ -18802,7 +19560,7 @@
       <c r="N104" s="49"/>
       <c r="O104" s="49"/>
     </row>
-    <row r="105" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>102</v>
       </c>
@@ -18847,7 +19605,7 @@
       <c r="N105" s="49"/>
       <c r="O105" s="49"/>
     </row>
-    <row r="106" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
         <v>103</v>
       </c>
@@ -18892,7 +19650,7 @@
       <c r="N106" s="49"/>
       <c r="O106" s="49"/>
     </row>
-    <row r="107" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>104</v>
       </c>
@@ -18937,7 +19695,7 @@
       <c r="N107" s="49"/>
       <c r="O107" s="49"/>
     </row>
-    <row r="108" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
         <v>105</v>
       </c>
@@ -18982,7 +19740,7 @@
       <c r="N108" s="49"/>
       <c r="O108" s="49"/>
     </row>
-    <row r="109" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>106</v>
       </c>
@@ -19027,7 +19785,7 @@
       <c r="N109" s="49"/>
       <c r="O109" s="49"/>
     </row>
-    <row r="110" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10">
         <v>107</v>
       </c>
@@ -19072,7 +19830,7 @@
       <c r="N110" s="49"/>
       <c r="O110" s="49"/>
     </row>
-    <row r="111" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>108</v>
       </c>
@@ -19117,7 +19875,7 @@
       <c r="N111" s="49"/>
       <c r="O111" s="49"/>
     </row>
-    <row r="112" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10">
         <v>109</v>
       </c>
@@ -19162,7 +19920,7 @@
       <c r="N112" s="49"/>
       <c r="O112" s="49"/>
     </row>
-    <row r="113" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>110</v>
       </c>
@@ -19207,7 +19965,7 @@
       <c r="N113" s="49"/>
       <c r="O113" s="49"/>
     </row>
-    <row r="114" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10">
         <v>111</v>
       </c>
@@ -19252,7 +20010,7 @@
       <c r="N114" s="49"/>
       <c r="O114" s="49"/>
     </row>
-    <row r="115" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>112</v>
       </c>
@@ -19297,7 +20055,7 @@
       <c r="N115" s="49"/>
       <c r="O115" s="49"/>
     </row>
-    <row r="116" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10">
         <v>113</v>
       </c>
@@ -19342,7 +20100,7 @@
       <c r="N116" s="49"/>
       <c r="O116" s="49"/>
     </row>
-    <row r="117" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>114</v>
       </c>
@@ -19387,7 +20145,7 @@
       <c r="N117" s="49"/>
       <c r="O117" s="49"/>
     </row>
-    <row r="118" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10">
         <v>115</v>
       </c>
@@ -19432,7 +20190,7 @@
       <c r="N118" s="49"/>
       <c r="O118" s="49"/>
     </row>
-    <row r="119" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>116</v>
       </c>
@@ -19477,7 +20235,7 @@
       <c r="N119" s="49"/>
       <c r="O119" s="49"/>
     </row>
-    <row r="120" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10">
         <v>117</v>
       </c>
@@ -19522,7 +20280,7 @@
       <c r="N120" s="49"/>
       <c r="O120" s="49"/>
     </row>
-    <row r="121" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>118</v>
       </c>
@@ -19567,7 +20325,7 @@
       <c r="N121" s="49"/>
       <c r="O121" s="49"/>
     </row>
-    <row r="122" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10">
         <v>119</v>
       </c>
@@ -19612,7 +20370,7 @@
       <c r="N122" s="49"/>
       <c r="O122" s="49"/>
     </row>
-    <row r="123" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>120</v>
       </c>
@@ -19657,7 +20415,7 @@
       <c r="N123" s="49"/>
       <c r="O123" s="49"/>
     </row>
-    <row r="124" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10">
         <v>121</v>
       </c>
@@ -19702,7 +20460,7 @@
       <c r="N124" s="49"/>
       <c r="O124" s="49"/>
     </row>
-    <row r="125" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>122</v>
       </c>
@@ -19747,7 +20505,7 @@
       <c r="N125" s="49"/>
       <c r="O125" s="49"/>
     </row>
-    <row r="126" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10">
         <v>123</v>
       </c>
@@ -19792,7 +20550,7 @@
       <c r="N126" s="49"/>
       <c r="O126" s="49"/>
     </row>
-    <row r="127" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>124</v>
       </c>
@@ -19837,7 +20595,7 @@
       <c r="N127" s="49"/>
       <c r="O127" s="49"/>
     </row>
-    <row r="128" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10">
         <v>125</v>
       </c>
@@ -19882,7 +20640,7 @@
       <c r="N128" s="49"/>
       <c r="O128" s="49"/>
     </row>
-    <row r="129" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>126</v>
       </c>
@@ -19927,7 +20685,7 @@
       <c r="N129" s="49"/>
       <c r="O129" s="49"/>
     </row>
-    <row r="130" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10">
         <v>127</v>
       </c>
@@ -19972,7 +20730,7 @@
       <c r="N130" s="49"/>
       <c r="O130" s="49"/>
     </row>
-    <row r="131" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>128</v>
       </c>
@@ -20017,7 +20775,7 @@
       <c r="N131" s="49"/>
       <c r="O131" s="49"/>
     </row>
-    <row r="132" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10">
         <v>129</v>
       </c>
@@ -20062,7 +20820,7 @@
       <c r="N132" s="49"/>
       <c r="O132" s="49"/>
     </row>
-    <row r="133" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>130</v>
       </c>
@@ -20107,7 +20865,7 @@
       <c r="N133" s="49"/>
       <c r="O133" s="49"/>
     </row>
-    <row r="134" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10">
         <v>131</v>
       </c>
@@ -20152,7 +20910,7 @@
       <c r="N134" s="49"/>
       <c r="O134" s="49"/>
     </row>
-    <row r="135" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>132</v>
       </c>
@@ -20197,7 +20955,7 @@
       <c r="N135" s="49"/>
       <c r="O135" s="49"/>
     </row>
-    <row r="136" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10">
         <v>133</v>
       </c>
@@ -20242,7 +21000,7 @@
       <c r="N136" s="49"/>
       <c r="O136" s="49"/>
     </row>
-    <row r="137" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>134</v>
       </c>
@@ -20287,7 +21045,7 @@
       <c r="N137" s="49"/>
       <c r="O137" s="49"/>
     </row>
-    <row r="138" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10">
         <v>135</v>
       </c>
@@ -20332,7 +21090,7 @@
       <c r="N138" s="49"/>
       <c r="O138" s="49"/>
     </row>
-    <row r="139" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>136</v>
       </c>
@@ -20377,7 +21135,7 @@
       <c r="N139" s="49"/>
       <c r="O139" s="49"/>
     </row>
-    <row r="140" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10">
         <v>137</v>
       </c>
@@ -20422,7 +21180,7 @@
       <c r="N140" s="49"/>
       <c r="O140" s="49"/>
     </row>
-    <row r="141" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>138</v>
       </c>
@@ -20467,7 +21225,7 @@
       <c r="N141" s="49"/>
       <c r="O141" s="49"/>
     </row>
-    <row r="142" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
         <v>139</v>
       </c>
@@ -20512,7 +21270,7 @@
       <c r="N142" s="49"/>
       <c r="O142" s="49"/>
     </row>
-    <row r="143" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>140</v>
       </c>
@@ -20557,7 +21315,7 @@
       <c r="N143" s="49"/>
       <c r="O143" s="49"/>
     </row>
-    <row r="144" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10">
         <v>141</v>
       </c>
@@ -20602,7 +21360,7 @@
       <c r="N144" s="49"/>
       <c r="O144" s="49"/>
     </row>
-    <row r="145" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>142</v>
       </c>
@@ -20647,7 +21405,7 @@
       <c r="N145" s="49"/>
       <c r="O145" s="49"/>
     </row>
-    <row r="146" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10">
         <v>143</v>
       </c>
@@ -20692,7 +21450,7 @@
       <c r="N146" s="49"/>
       <c r="O146" s="49"/>
     </row>
-    <row r="147" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>144</v>
       </c>
@@ -20737,7 +21495,7 @@
       <c r="N147" s="49"/>
       <c r="O147" s="49"/>
     </row>
-    <row r="148" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10">
         <v>145</v>
       </c>
@@ -20782,7 +21540,7 @@
       <c r="N148" s="49"/>
       <c r="O148" s="49"/>
     </row>
-    <row r="149" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>146</v>
       </c>
@@ -20827,7 +21585,7 @@
       <c r="N149" s="49"/>
       <c r="O149" s="49"/>
     </row>
-    <row r="150" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10">
         <v>147</v>
       </c>
@@ -20872,7 +21630,7 @@
       <c r="N150" s="49"/>
       <c r="O150" s="49"/>
     </row>
-    <row r="151" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>148</v>
       </c>
@@ -20917,7 +21675,7 @@
       <c r="N151" s="49"/>
       <c r="O151" s="49"/>
     </row>
-    <row r="152" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10">
         <v>149</v>
       </c>
@@ -20962,7 +21720,7 @@
       <c r="N152" s="49"/>
       <c r="O152" s="49"/>
     </row>
-    <row r="153" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>150</v>
       </c>
@@ -21007,7 +21765,7 @@
       <c r="N153" s="49"/>
       <c r="O153" s="49"/>
     </row>
-    <row r="154" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
         <v>151</v>
       </c>
@@ -21052,7 +21810,7 @@
       <c r="N154" s="49"/>
       <c r="O154" s="49"/>
     </row>
-    <row r="155" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>152</v>
       </c>
@@ -21097,7 +21855,7 @@
       <c r="N155" s="49"/>
       <c r="O155" s="49"/>
     </row>
-    <row r="156" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10">
         <v>153</v>
       </c>
@@ -21142,7 +21900,7 @@
       <c r="N156" s="49"/>
       <c r="O156" s="49"/>
     </row>
-    <row r="157" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>154</v>
       </c>
@@ -21187,7 +21945,7 @@
       <c r="N157" s="49"/>
       <c r="O157" s="49"/>
     </row>
-    <row r="158" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10">
         <v>155</v>
       </c>
@@ -21232,7 +21990,7 @@
       <c r="N158" s="49"/>
       <c r="O158" s="49"/>
     </row>
-    <row r="159" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>156</v>
       </c>
@@ -21277,7 +22035,7 @@
       <c r="N159" s="49"/>
       <c r="O159" s="49"/>
     </row>
-    <row r="160" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10">
         <v>157</v>
       </c>
@@ -21322,7 +22080,7 @@
       <c r="N160" s="49"/>
       <c r="O160" s="49"/>
     </row>
-    <row r="161" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10">
         <v>158</v>
       </c>
@@ -21367,7 +22125,7 @@
       <c r="N161" s="49"/>
       <c r="O161" s="49"/>
     </row>
-    <row r="162" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>159</v>
       </c>
@@ -21412,7 +22170,7 @@
       <c r="N162" s="49"/>
       <c r="O162" s="49"/>
     </row>
-    <row r="163" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10">
         <v>160</v>
       </c>
@@ -21457,7 +22215,7 @@
       <c r="N163" s="49"/>
       <c r="O163" s="49"/>
     </row>
-    <row r="164" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>161</v>
       </c>
@@ -21502,7 +22260,7 @@
       <c r="N164" s="49"/>
       <c r="O164" s="49"/>
     </row>
-    <row r="165" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10">
         <v>162</v>
       </c>
@@ -21547,7 +22305,7 @@
       <c r="N165" s="49"/>
       <c r="O165" s="49"/>
     </row>
-    <row r="166" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>163</v>
       </c>
@@ -21592,7 +22350,7 @@
       <c r="N166" s="49"/>
       <c r="O166" s="49"/>
     </row>
-    <row r="167" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10">
         <v>164</v>
       </c>
@@ -21637,7 +22395,7 @@
       <c r="N167" s="49"/>
       <c r="O167" s="49"/>
     </row>
-    <row r="168" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>165</v>
       </c>
@@ -21682,7 +22440,7 @@
       <c r="N168" s="49"/>
       <c r="O168" s="49"/>
     </row>
-    <row r="169" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10">
         <v>166</v>
       </c>
@@ -21727,7 +22485,7 @@
       <c r="N169" s="49"/>
       <c r="O169" s="49"/>
     </row>
-    <row r="170" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>167</v>
       </c>
@@ -21772,7 +22530,7 @@
       <c r="N170" s="49"/>
       <c r="O170" s="49"/>
     </row>
-    <row r="171" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10">
         <v>168</v>
       </c>
@@ -21817,7 +22575,7 @@
       <c r="N171" s="49"/>
       <c r="O171" s="49"/>
     </row>
-    <row r="172" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>169</v>
       </c>
@@ -21862,7 +22620,7 @@
       <c r="N172" s="49"/>
       <c r="O172" s="49"/>
     </row>
-    <row r="173" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10">
         <v>170</v>
       </c>
@@ -21907,7 +22665,7 @@
       <c r="N173" s="49"/>
       <c r="O173" s="49"/>
     </row>
-    <row r="174" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>171</v>
       </c>
@@ -21952,7 +22710,7 @@
       <c r="N174" s="49"/>
       <c r="O174" s="49"/>
     </row>
-    <row r="175" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10">
         <v>172</v>
       </c>
@@ -21997,7 +22755,7 @@
       <c r="N175" s="49"/>
       <c r="O175" s="49"/>
     </row>
-    <row r="176" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>173</v>
       </c>
@@ -22042,7 +22800,7 @@
       <c r="N176" s="49"/>
       <c r="O176" s="49"/>
     </row>
-    <row r="177" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10">
         <v>174</v>
       </c>
@@ -22087,7 +22845,7 @@
       <c r="N177" s="49"/>
       <c r="O177" s="49"/>
     </row>
-    <row r="178" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>175</v>
       </c>
@@ -22132,7 +22890,7 @@
       <c r="N178" s="49"/>
       <c r="O178" s="49"/>
     </row>
-    <row r="179" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10">
         <v>176</v>
       </c>
@@ -22177,7 +22935,7 @@
       <c r="N179" s="49"/>
       <c r="O179" s="49"/>
     </row>
-    <row r="180" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>177</v>
       </c>
@@ -22222,7 +22980,7 @@
       <c r="N180" s="49"/>
       <c r="O180" s="49"/>
     </row>
-    <row r="181" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10">
         <v>178</v>
       </c>
@@ -22267,7 +23025,7 @@
       <c r="N181" s="49"/>
       <c r="O181" s="49"/>
     </row>
-    <row r="182" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>179</v>
       </c>
@@ -22312,7 +23070,7 @@
       <c r="N182" s="49"/>
       <c r="O182" s="49"/>
     </row>
-    <row r="183" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10">
         <v>180</v>
       </c>
@@ -22357,7 +23115,7 @@
       <c r="N183" s="49"/>
       <c r="O183" s="49"/>
     </row>
-    <row r="184" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>181</v>
       </c>
@@ -22402,7 +23160,7 @@
       <c r="N184" s="49"/>
       <c r="O184" s="49"/>
     </row>
-    <row r="185" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10">
         <v>182</v>
       </c>
@@ -22447,7 +23205,7 @@
       <c r="N185" s="49"/>
       <c r="O185" s="49"/>
     </row>
-    <row r="186" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>183</v>
       </c>
@@ -22492,7 +23250,7 @@
       <c r="N186" s="49"/>
       <c r="O186" s="49"/>
     </row>
-    <row r="187" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10">
         <v>184</v>
       </c>
@@ -22537,7 +23295,7 @@
       <c r="N187" s="49"/>
       <c r="O187" s="49"/>
     </row>
-    <row r="188" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>185</v>
       </c>
@@ -22582,7 +23340,7 @@
       <c r="N188" s="49"/>
       <c r="O188" s="49"/>
     </row>
-    <row r="189" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10">
         <v>186</v>
       </c>
@@ -22627,7 +23385,7 @@
       <c r="N189" s="49"/>
       <c r="O189" s="49"/>
     </row>
-    <row r="190" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>187</v>
       </c>
@@ -22672,7 +23430,7 @@
       <c r="N190" s="49"/>
       <c r="O190" s="49"/>
     </row>
-    <row r="191" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10">
         <v>188</v>
       </c>
@@ -22717,7 +23475,7 @@
       <c r="N191" s="49"/>
       <c r="O191" s="49"/>
     </row>
-    <row r="192" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>189</v>
       </c>
@@ -22762,7 +23520,7 @@
       <c r="N192" s="49"/>
       <c r="O192" s="49"/>
     </row>
-    <row r="193" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10">
         <v>190</v>
       </c>
@@ -22807,7 +23565,7 @@
       <c r="N193" s="49"/>
       <c r="O193" s="49"/>
     </row>
-    <row r="194" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>191</v>
       </c>
@@ -22852,7 +23610,7 @@
       <c r="N194" s="49"/>
       <c r="O194" s="49"/>
     </row>
-    <row r="195" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10">
         <v>192</v>
       </c>
@@ -22897,7 +23655,7 @@
       <c r="N195" s="49"/>
       <c r="O195" s="49"/>
     </row>
-    <row r="196" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>193</v>
       </c>
@@ -22942,7 +23700,7 @@
       <c r="N196" s="49"/>
       <c r="O196" s="49"/>
     </row>
-    <row r="197" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10">
         <v>194</v>
       </c>
@@ -22987,7 +23745,7 @@
       <c r="N197" s="49"/>
       <c r="O197" s="49"/>
     </row>
-    <row r="198" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>195</v>
       </c>
@@ -23032,7 +23790,7 @@
       <c r="N198" s="49"/>
       <c r="O198" s="49"/>
     </row>
-    <row r="199" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10">
         <v>196</v>
       </c>
@@ -23077,7 +23835,7 @@
       <c r="N199" s="49"/>
       <c r="O199" s="49"/>
     </row>
-    <row r="200" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>197</v>
       </c>
@@ -23122,7 +23880,7 @@
       <c r="N200" s="49"/>
       <c r="O200" s="49"/>
     </row>
-    <row r="201" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="10">
         <v>198</v>
       </c>
@@ -23167,7 +23925,7 @@
       <c r="N201" s="49"/>
       <c r="O201" s="49"/>
     </row>
-    <row r="202" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <v>199</v>
       </c>
@@ -23212,7 +23970,7 @@
       <c r="N202" s="49"/>
       <c r="O202" s="49"/>
     </row>
-    <row r="203" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10">
         <v>200</v>
       </c>
@@ -23257,7 +24015,7 @@
       <c r="N203" s="49"/>
       <c r="O203" s="49"/>
     </row>
-    <row r="204" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>201</v>
       </c>
@@ -23302,7 +24060,7 @@
       <c r="N204" s="49"/>
       <c r="O204" s="49"/>
     </row>
-    <row r="205" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10">
         <v>202</v>
       </c>
@@ -23347,7 +24105,7 @@
       <c r="N205" s="49"/>
       <c r="O205" s="49"/>
     </row>
-    <row r="206" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>203</v>
       </c>
@@ -23392,7 +24150,7 @@
       <c r="N206" s="49"/>
       <c r="O206" s="49"/>
     </row>
-    <row r="207" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="10">
         <v>204</v>
       </c>
@@ -23437,7 +24195,7 @@
       <c r="N207" s="49"/>
       <c r="O207" s="49"/>
     </row>
-    <row r="208" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <v>205</v>
       </c>
@@ -23482,7 +24240,7 @@
       <c r="N208" s="49"/>
       <c r="O208" s="49"/>
     </row>
-    <row r="209" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10">
         <v>206</v>
       </c>
@@ -23527,7 +24285,7 @@
       <c r="N209" s="49"/>
       <c r="O209" s="49"/>
     </row>
-    <row r="210" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>207</v>
       </c>
@@ -23572,7 +24330,7 @@
       <c r="N210" s="49"/>
       <c r="O210" s="49"/>
     </row>
-    <row r="211" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10">
         <v>208</v>
       </c>
@@ -23617,7 +24375,7 @@
       <c r="N211" s="49"/>
       <c r="O211" s="49"/>
     </row>
-    <row r="212" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>209</v>
       </c>
@@ -23662,7 +24420,7 @@
       <c r="N212" s="49"/>
       <c r="O212" s="49"/>
     </row>
-    <row r="213" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10">
         <v>210</v>
       </c>
@@ -23707,7 +24465,7 @@
       <c r="N213" s="49"/>
       <c r="O213" s="49"/>
     </row>
-    <row r="214" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>211</v>
       </c>
@@ -23752,7 +24510,7 @@
       <c r="N214" s="49"/>
       <c r="O214" s="49"/>
     </row>
-    <row r="215" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="10">
         <v>212</v>
       </c>
@@ -23797,7 +24555,7 @@
       <c r="N215" s="49"/>
       <c r="O215" s="49"/>
     </row>
-    <row r="216" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>213</v>
       </c>
@@ -23842,7 +24600,7 @@
       <c r="N216" s="49"/>
       <c r="O216" s="49"/>
     </row>
-    <row r="217" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="10">
         <v>214</v>
       </c>
@@ -23887,7 +24645,7 @@
       <c r="N217" s="49"/>
       <c r="O217" s="49"/>
     </row>
-    <row r="218" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <v>215</v>
       </c>
@@ -23932,7 +24690,7 @@
       <c r="N218" s="49"/>
       <c r="O218" s="49"/>
     </row>
-    <row r="219" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="10">
         <v>216</v>
       </c>
@@ -23977,7 +24735,7 @@
       <c r="N219" s="49"/>
       <c r="O219" s="49"/>
     </row>
-    <row r="220" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
         <v>217</v>
       </c>
@@ -24022,7 +24780,7 @@
       <c r="N220" s="49"/>
       <c r="O220" s="49"/>
     </row>
-    <row r="221" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10">
         <v>218</v>
       </c>
@@ -24067,7 +24825,7 @@
       <c r="N221" s="49"/>
       <c r="O221" s="49"/>
     </row>
-    <row r="222" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
         <v>219</v>
       </c>
@@ -24112,7 +24870,7 @@
       <c r="N222" s="49"/>
       <c r="O222" s="49"/>
     </row>
-    <row r="223" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10">
         <v>220</v>
       </c>
@@ -24157,7 +24915,7 @@
       <c r="N223" s="49"/>
       <c r="O223" s="49"/>
     </row>
-    <row r="224" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
         <v>221</v>
       </c>
@@ -24202,7 +24960,7 @@
       <c r="N224" s="49"/>
       <c r="O224" s="49"/>
     </row>
-    <row r="225" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="10">
         <v>222</v>
       </c>
@@ -24247,7 +25005,7 @@
       <c r="N225" s="49"/>
       <c r="O225" s="49"/>
     </row>
-    <row r="226" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>223</v>
       </c>
@@ -24292,7 +25050,7 @@
       <c r="N226" s="49"/>
       <c r="O226" s="49"/>
     </row>
-    <row r="227" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="10">
         <v>224</v>
       </c>
@@ -24337,7 +25095,7 @@
       <c r="N227" s="49"/>
       <c r="O227" s="49"/>
     </row>
-    <row r="228" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
         <v>225</v>
       </c>
@@ -24382,7 +25140,7 @@
       <c r="N228" s="49"/>
       <c r="O228" s="49"/>
     </row>
-    <row r="229" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="10">
         <v>226</v>
       </c>
@@ -24427,7 +25185,7 @@
       <c r="N229" s="49"/>
       <c r="O229" s="49"/>
     </row>
-    <row r="230" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
         <v>227</v>
       </c>
@@ -24472,7 +25230,7 @@
       <c r="N230" s="49"/>
       <c r="O230" s="49"/>
     </row>
-    <row r="231" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="10">
         <v>228</v>
       </c>
@@ -24517,7 +25275,7 @@
       <c r="N231" s="49"/>
       <c r="O231" s="49"/>
     </row>
-    <row r="232" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
         <v>229</v>
       </c>
@@ -24562,7 +25320,7 @@
       <c r="N232" s="49"/>
       <c r="O232" s="49"/>
     </row>
-    <row r="233" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="10">
         <v>230</v>
       </c>
@@ -24607,7 +25365,7 @@
       <c r="N233" s="49"/>
       <c r="O233" s="49"/>
     </row>
-    <row r="234" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
         <v>231</v>
       </c>
@@ -24652,7 +25410,7 @@
       <c r="N234" s="49"/>
       <c r="O234" s="49"/>
     </row>
-    <row r="235" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10">
         <v>232</v>
       </c>
@@ -24697,7 +25455,7 @@
       <c r="N235" s="49"/>
       <c r="O235" s="49"/>
     </row>
-    <row r="236" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
         <v>233</v>
       </c>
@@ -24742,7 +25500,7 @@
       <c r="N236" s="49"/>
       <c r="O236" s="49"/>
     </row>
-    <row r="237" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="10">
         <v>234</v>
       </c>
@@ -24787,7 +25545,7 @@
       <c r="N237" s="49"/>
       <c r="O237" s="49"/>
     </row>
-    <row r="238" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
         <v>235</v>
       </c>
@@ -24832,7 +25590,7 @@
       <c r="N238" s="49"/>
       <c r="O238" s="49"/>
     </row>
-    <row r="239" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10">
         <v>236</v>
       </c>
@@ -24877,7 +25635,7 @@
       <c r="N239" s="49"/>
       <c r="O239" s="49"/>
     </row>
-    <row r="240" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
         <v>237</v>
       </c>
@@ -24922,7 +25680,7 @@
       <c r="N240" s="49"/>
       <c r="O240" s="49"/>
     </row>
-    <row r="241" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="10">
         <v>238</v>
       </c>
@@ -24967,7 +25725,7 @@
       <c r="N241" s="49"/>
       <c r="O241" s="49"/>
     </row>
-    <row r="242" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
         <v>239</v>
       </c>
@@ -25012,7 +25770,7 @@
       <c r="N242" s="49"/>
       <c r="O242" s="49"/>
     </row>
-    <row r="243" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="10">
         <v>240</v>
       </c>
@@ -25057,7 +25815,7 @@
       <c r="N243" s="49"/>
       <c r="O243" s="49"/>
     </row>
-    <row r="244" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
         <v>241</v>
       </c>
@@ -25102,7 +25860,7 @@
       <c r="N244" s="49"/>
       <c r="O244" s="49"/>
     </row>
-    <row r="245" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="10">
         <v>242</v>
       </c>
@@ -25147,7 +25905,7 @@
       <c r="N245" s="49"/>
       <c r="O245" s="49"/>
     </row>
-    <row r="246" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
         <v>243</v>
       </c>
@@ -25192,7 +25950,7 @@
       <c r="N246" s="49"/>
       <c r="O246" s="49"/>
     </row>
-    <row r="247" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="10">
         <v>244</v>
       </c>
@@ -25237,7 +25995,7 @@
       <c r="N247" s="49"/>
       <c r="O247" s="49"/>
     </row>
-    <row r="248" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
         <v>245</v>
       </c>
@@ -25282,7 +26040,7 @@
       <c r="N248" s="49"/>
       <c r="O248" s="49"/>
     </row>
-    <row r="249" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="10">
         <v>246</v>
       </c>
@@ -25327,7 +26085,7 @@
       <c r="N249" s="49"/>
       <c r="O249" s="49"/>
     </row>
-    <row r="250" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
         <v>247</v>
       </c>
@@ -25372,7 +26130,7 @@
       <c r="N250" s="49"/>
       <c r="O250" s="49"/>
     </row>
-    <row r="251" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="10">
         <v>248</v>
       </c>
@@ -25418,7 +26176,7 @@
       <c r="N251" s="49"/>
       <c r="O251" s="49"/>
     </row>
-    <row r="252" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
         <v>249</v>
       </c>
@@ -25464,7 +26222,7 @@
       <c r="N252" s="49"/>
       <c r="O252" s="49"/>
     </row>
-    <row r="253" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="10">
         <v>250</v>
       </c>
@@ -25510,7 +26268,7 @@
       <c r="N253" s="49"/>
       <c r="O253" s="49"/>
     </row>
-    <row r="254" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
         <v>251</v>
       </c>
@@ -25556,7 +26314,7 @@
       <c r="N254" s="49"/>
       <c r="O254" s="49"/>
     </row>
-    <row r="255" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="10">
         <v>252</v>
       </c>
@@ -25602,7 +26360,7 @@
       <c r="N255" s="49"/>
       <c r="O255" s="49"/>
     </row>
-    <row r="256" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
         <v>253</v>
       </c>
@@ -25648,7 +26406,7 @@
       <c r="N256" s="49"/>
       <c r="O256" s="49"/>
     </row>
-    <row r="257" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="10">
         <v>254</v>
       </c>
@@ -25694,7 +26452,7 @@
       <c r="N257" s="49"/>
       <c r="O257" s="49"/>
     </row>
-    <row r="258" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
         <v>255</v>
       </c>
@@ -25740,7 +26498,7 @@
       <c r="N258" s="49"/>
       <c r="O258" s="49"/>
     </row>
-    <row r="259" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10">
         <v>256</v>
       </c>
@@ -25786,7 +26544,7 @@
       <c r="N259" s="49"/>
       <c r="O259" s="49"/>
     </row>
-    <row r="260" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
         <v>257</v>
       </c>
@@ -25832,7 +26590,7 @@
       <c r="N260" s="49"/>
       <c r="O260" s="49"/>
     </row>
-    <row r="261" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10">
         <v>258</v>
       </c>
@@ -25878,7 +26636,7 @@
       <c r="N261" s="49"/>
       <c r="O261" s="49"/>
     </row>
-    <row r="262" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
         <v>259</v>
       </c>
@@ -25924,7 +26682,7 @@
       <c r="N262" s="49"/>
       <c r="O262" s="49"/>
     </row>
-    <row r="263" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="10">
         <v>260</v>
       </c>
@@ -25970,7 +26728,7 @@
       <c r="N263" s="49"/>
       <c r="O263" s="49"/>
     </row>
-    <row r="264" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
         <v>261</v>
       </c>
@@ -26016,7 +26774,7 @@
       <c r="N264" s="49"/>
       <c r="O264" s="49"/>
     </row>
-    <row r="265" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="10">
         <v>262</v>
       </c>
@@ -26062,7 +26820,7 @@
       <c r="N265" s="49"/>
       <c r="O265" s="49"/>
     </row>
-    <row r="266" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
         <v>263</v>
       </c>
@@ -26108,7 +26866,7 @@
       <c r="N266" s="49"/>
       <c r="O266" s="49"/>
     </row>
-    <row r="267" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="10">
         <v>264</v>
       </c>
@@ -26154,7 +26912,7 @@
       <c r="N267" s="49"/>
       <c r="O267" s="49"/>
     </row>
-    <row r="268" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
         <v>265</v>
       </c>
@@ -26200,7 +26958,7 @@
       <c r="N268" s="49"/>
       <c r="O268" s="49"/>
     </row>
-    <row r="269" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="10">
         <v>266</v>
       </c>
@@ -26246,7 +27004,7 @@
       <c r="N269" s="49"/>
       <c r="O269" s="49"/>
     </row>
-    <row r="270" spans="1:15" s="6" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
         <v>267</v>
       </c>
@@ -26292,7 +27050,7 @@
       <c r="N270" s="49"/>
       <c r="O270" s="49"/>
     </row>
-    <row r="271" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="10">
         <v>268</v>
       </c>
@@ -26338,7 +27096,7 @@
       <c r="N271" s="49"/>
       <c r="O271" s="49"/>
     </row>
-    <row r="272" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
         <v>269</v>
       </c>
@@ -26384,7 +27142,7 @@
       <c r="N272" s="49"/>
       <c r="O272" s="49"/>
     </row>
-    <row r="273" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="10">
         <v>270</v>
       </c>
@@ -26430,7 +27188,7 @@
       <c r="N273" s="49"/>
       <c r="O273" s="49"/>
     </row>
-    <row r="274" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
         <v>271</v>
       </c>
@@ -26476,7 +27234,7 @@
       <c r="N274" s="49"/>
       <c r="O274" s="49"/>
     </row>
-    <row r="275" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="10">
         <v>272</v>
       </c>
@@ -26522,7 +27280,7 @@
       <c r="N275" s="49"/>
       <c r="O275" s="49"/>
     </row>
-    <row r="276" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
         <v>273</v>
       </c>
@@ -26568,7 +27326,7 @@
       <c r="N276" s="49"/>
       <c r="O276" s="49"/>
     </row>
-    <row r="277" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="10">
         <v>274</v>
       </c>
@@ -26614,7 +27372,7 @@
       <c r="N277" s="49"/>
       <c r="O277" s="49"/>
     </row>
-    <row r="278" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
         <v>275</v>
       </c>
@@ -26660,7 +27418,7 @@
       <c r="N278" s="49"/>
       <c r="O278" s="49"/>
     </row>
-    <row r="279" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="10">
         <v>276</v>
       </c>
@@ -26706,7 +27464,7 @@
       <c r="N279" s="49"/>
       <c r="O279" s="49"/>
     </row>
-    <row r="280" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
         <v>277</v>
       </c>
@@ -26752,7 +27510,7 @@
       <c r="N280" s="49"/>
       <c r="O280" s="49"/>
     </row>
-    <row r="281" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="10">
         <v>278</v>
       </c>
@@ -26798,7 +27556,7 @@
       <c r="N281" s="49"/>
       <c r="O281" s="49"/>
     </row>
-    <row r="282" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
         <v>279</v>
       </c>
@@ -26844,7 +27602,7 @@
       <c r="N282" s="49"/>
       <c r="O282" s="49"/>
     </row>
-    <row r="283" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="10">
         <v>280</v>
       </c>
@@ -26890,7 +27648,7 @@
       <c r="N283" s="49"/>
       <c r="O283" s="49"/>
     </row>
-    <row r="284" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
         <v>281</v>
       </c>
@@ -26936,7 +27694,7 @@
       <c r="N284" s="49"/>
       <c r="O284" s="49"/>
     </row>
-    <row r="285" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="10">
         <v>282</v>
       </c>
@@ -26997,30 +27755,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:M270">
-    <cfRule type="expression" dxfId="29" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="81" stopIfTrue="1">
       <formula>ISNUMBER(SEARCH($G$1,K5:R271))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="82" stopIfTrue="1">
       <formula>ISNUMBER(SEARCH($F$1,K5:R271))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="83" stopIfTrue="1">
       <formula>ISNUMBER(SEARCH($E$1,K5:R271))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="84" stopIfTrue="1">
       <formula>ISNUMBER(SEARCH($D$1,K5:R271))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:M4">
-    <cfRule type="expression" dxfId="25" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="85" stopIfTrue="1">
       <formula>ISNUMBER(SEARCH($G$1,K4:Q270))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="86" stopIfTrue="1">
       <formula>ISNUMBER(SEARCH($F$1,K4:Q270))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="87" stopIfTrue="1">
       <formula>ISNUMBER(SEARCH($E$1,K4:Q270))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="88" stopIfTrue="1">
       <formula>ISNUMBER(SEARCH($D$1,K4:Q270))</formula>
     </cfRule>
   </conditionalFormatting>
